--- a/teaching/traditional_assets/database/data/australia/australia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ37"/>
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0882</v>
+        <v>0.0214</v>
       </c>
       <c r="E2">
-        <v>0.0411</v>
+        <v>0.0212</v>
       </c>
       <c r="F2">
-        <v>0.09</v>
+        <v>0.0513</v>
       </c>
       <c r="G2">
-        <v>0.06408016592906614</v>
+        <v>0.0557192880429976</v>
       </c>
       <c r="H2">
-        <v>0.06326278519058245</v>
+        <v>0.05463567626192327</v>
       </c>
       <c r="I2">
-        <v>0.07300927850911514</v>
+        <v>0.04761869161017736</v>
       </c>
       <c r="J2">
-        <v>0.06202356798457665</v>
+        <v>0.04010090498369055</v>
       </c>
       <c r="K2">
-        <v>1014.719</v>
+        <v>1780.993</v>
       </c>
       <c r="L2">
-        <v>0.03750788068436869</v>
+        <v>0.06018915284465159</v>
       </c>
       <c r="M2">
-        <v>2719.2215</v>
+        <v>1767.535</v>
       </c>
       <c r="N2">
-        <v>0.04545732124223618</v>
+        <v>0.02691091498800947</v>
       </c>
       <c r="O2">
-        <v>2.679777849828375</v>
+        <v>0.9924435413277873</v>
       </c>
       <c r="P2">
-        <v>2270.7555</v>
+        <v>1757.797</v>
       </c>
       <c r="Q2">
-        <v>0.03796029938203808</v>
+        <v>0.02676265286581486</v>
       </c>
       <c r="R2">
-        <v>2.237817070538739</v>
+        <v>0.9869758050705421</v>
       </c>
       <c r="S2">
-        <v>448.4659999999999</v>
+        <v>9.737999999999989</v>
       </c>
       <c r="T2">
-        <v>0.1649244094311552</v>
+        <v>0.005509367565564466</v>
       </c>
       <c r="U2">
-        <v>13534.555</v>
+        <v>9640.495999999999</v>
       </c>
       <c r="V2">
-        <v>0.2262576309085943</v>
+        <v>0.1467776130590032</v>
       </c>
       <c r="W2">
-        <v>0.06910336950314107</v>
+        <v>0.03291294986158105</v>
       </c>
       <c r="X2">
-        <v>0.02932257142433397</v>
+        <v>0.01902286161028001</v>
       </c>
       <c r="Y2">
-        <v>0.0397807980788071</v>
+        <v>0.01389008825130103</v>
       </c>
       <c r="Z2">
-        <v>0.2323429264291297</v>
+        <v>0.2601561133866673</v>
       </c>
       <c r="AA2">
-        <v>0.003963299919791703</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02784859129241072</v>
+        <v>0.01841478411585513</v>
       </c>
       <c r="AC2">
-        <v>-0.02435820978403117</v>
+        <v>-0.02007808732195817</v>
       </c>
       <c r="AD2">
-        <v>102667.576</v>
+        <v>112582.086</v>
       </c>
       <c r="AE2">
-        <v>1668.916799824978</v>
+        <v>0.47052853594962</v>
       </c>
       <c r="AF2">
-        <v>104336.492799825</v>
+        <v>112582.5565285359</v>
       </c>
       <c r="AG2">
-        <v>90801.93779982498</v>
+        <v>102942.0605285359</v>
       </c>
       <c r="AH2">
-        <v>0.6355946498618367</v>
+        <v>0.6315512697462206</v>
       </c>
       <c r="AI2">
-        <v>0.7935733590756568</v>
+        <v>0.7965225435138505</v>
       </c>
       <c r="AJ2">
-        <v>0.6028498195485953</v>
+        <v>0.6104863624255356</v>
       </c>
       <c r="AK2">
-        <v>0.7698847094607559</v>
+        <v>0.7816281436036238</v>
       </c>
       <c r="AL2">
-        <v>860.684</v>
+        <v>616.39</v>
       </c>
       <c r="AM2">
-        <v>859.004</v>
+        <v>615.466</v>
       </c>
       <c r="AN2">
-        <v>41.05148009933836</v>
+        <v>69.50348097456175</v>
       </c>
       <c r="AO2">
-        <v>2.338211236644343</v>
+        <v>2.285418322815101</v>
       </c>
       <c r="AP2">
-        <v>36.30702201998882</v>
+        <v>63.55213160135692</v>
       </c>
       <c r="AQ2">
-        <v>2.342784201237713</v>
+        <v>2.288849424663588</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06150000000000001</v>
+        <v>0.0476</v>
       </c>
       <c r="E3">
-        <v>0.0513</v>
+        <v>0.0462</v>
       </c>
       <c r="F3">
-        <v>0.0417</v>
+        <v>0.0242</v>
       </c>
       <c r="G3">
-        <v>0.7678711704634722</v>
+        <v>0.7463633959270034</v>
       </c>
       <c r="H3">
-        <v>0.7678711704634722</v>
+        <v>0.7463633959270034</v>
       </c>
       <c r="I3">
-        <v>0.7525493349883089</v>
+        <v>0.7336683417085426</v>
       </c>
       <c r="J3">
-        <v>0.525140616041599</v>
+        <v>0.5075386981118167</v>
       </c>
       <c r="K3">
-        <v>345</v>
+        <v>344.2</v>
       </c>
       <c r="L3">
-        <v>0.4516889238020425</v>
+        <v>0.4551705897910605</v>
       </c>
       <c r="M3">
-        <v>303.4</v>
+        <v>480.9</v>
       </c>
       <c r="N3">
-        <v>0.0284511295117171</v>
+        <v>0.04472157125320834</v>
       </c>
       <c r="O3">
-        <v>0.8794202898550724</v>
+        <v>1.397152818128995</v>
       </c>
       <c r="P3">
-        <v>303.4</v>
+        <v>480.9</v>
       </c>
       <c r="Q3">
-        <v>0.0284511295117171</v>
+        <v>0.04472157125320834</v>
       </c>
       <c r="R3">
-        <v>0.8794202898550724</v>
+        <v>1.397152818128995</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1026.5</v>
+        <v>814.3</v>
       </c>
       <c r="V3">
-        <v>0.09625934226690049</v>
+        <v>0.0757262954283376</v>
       </c>
       <c r="W3">
-        <v>0.118219511359353</v>
+        <v>0.1253459577567371</v>
       </c>
       <c r="X3">
-        <v>0.0269995546070456</v>
+        <v>0.01707893556079565</v>
       </c>
       <c r="Y3">
-        <v>0.09121995675230744</v>
+        <v>0.1082670221959414</v>
       </c>
       <c r="Z3">
-        <v>1.673113748878998</v>
+        <v>8.002116402116403</v>
       </c>
       <c r="AA3">
-        <v>0.878619984793986</v>
+        <v>4.061383740869374</v>
       </c>
       <c r="AB3">
-        <v>0.02696948339843597</v>
+        <v>0.01705863244942713</v>
       </c>
       <c r="AC3">
-        <v>0.85165050139555</v>
+        <v>4.044325108419947</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AE3">
-        <v>43.51408967964854</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>43.51408967964854</v>
+        <v>56</v>
       </c>
       <c r="AG3">
-        <v>-982.9859103203514</v>
+        <v>-758.3</v>
       </c>
       <c r="AH3">
-        <v>0.004063921439406143</v>
+        <v>0.005180771935018318</v>
       </c>
       <c r="AI3">
-        <v>0.01559916468629336</v>
+        <v>0.02133658462241865</v>
       </c>
       <c r="AJ3">
-        <v>-0.101538542870478</v>
+        <v>-0.07586869303344704</v>
       </c>
       <c r="AK3">
-        <v>-0.5575598720818882</v>
+        <v>-0.4188808484781528</v>
       </c>
       <c r="AL3">
-        <v>82.3</v>
+        <v>46.6</v>
       </c>
       <c r="AM3">
-        <v>82.3</v>
+        <v>46.6</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.09922041105598867</v>
       </c>
       <c r="AO3">
-        <v>7.007290400972054</v>
+        <v>11.90557939914163</v>
       </c>
       <c r="AP3">
-        <v>-1.656810905646977</v>
+        <v>-1.343550673281361</v>
       </c>
       <c r="AQ3">
-        <v>7.007290400972054</v>
+        <v>11.90557939914163</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QuickFee Limited (ASX:QFE)</t>
+          <t>Yellow Brick Road Holdings Limited (ASX:YBR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -864,104 +864,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.019</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I4">
-        <v>0.001785232421070571</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J4">
-        <v>0.001785232421070571</v>
+        <v>0.07899049491969846</v>
       </c>
       <c r="K4">
-        <v>-0.8100000000000001</v>
+        <v>4.11</v>
       </c>
       <c r="L4">
-        <v>-0.199017199017199</v>
+        <v>0.03333333333333334</v>
       </c>
       <c r="M4">
-        <v>0.477</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01347457627118644</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.5888888888888888</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.477</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01347457627118644</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0.5888888888888888</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>7.82</v>
       </c>
       <c r="V4">
-        <v>0.05508474576271186</v>
+        <v>0.3671361502347418</v>
+      </c>
+      <c r="W4">
+        <v>0.1644</v>
       </c>
       <c r="X4">
-        <v>0.03040817247585902</v>
+        <v>0.01819436132603571</v>
+      </c>
+      <c r="Y4">
+        <v>0.1462056386739643</v>
       </c>
       <c r="Z4">
-        <v>469.4066666666668</v>
+        <v>4.531422271223814</v>
       </c>
       <c r="AA4">
-        <v>0.838</v>
+        <v>0.3579392878941132</v>
       </c>
       <c r="AB4">
-        <v>0.02893603208027724</v>
+        <v>0.01817096922235598</v>
       </c>
       <c r="AC4">
-        <v>0.8090639679197227</v>
+        <v>0.3397683186717573</v>
       </c>
       <c r="AD4">
-        <v>22.3</v>
+        <v>4.49</v>
       </c>
       <c r="AE4">
-        <v>0.008670520231213872</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>22.30867052023121</v>
+        <v>4.49</v>
       </c>
       <c r="AG4">
-        <v>20.35867052023121</v>
+        <v>-3.33</v>
       </c>
       <c r="AH4">
-        <v>0.3865739813293802</v>
+        <v>0.1740984877859636</v>
       </c>
       <c r="AI4">
-        <v>0.9853361233403696</v>
+        <v>0.1286901691028948</v>
       </c>
       <c r="AJ4">
-        <v>0.3651211610729558</v>
+        <v>-0.1853088480801336</v>
       </c>
       <c r="AK4">
-        <v>0.9839541207871745</v>
+        <v>-0.1230144070927226</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AN4">
-        <v>2477.777777777778</v>
+        <v>0.3277372262773723</v>
+      </c>
+      <c r="AO4">
+        <v>50.18315018315018</v>
       </c>
       <c r="AP4">
-        <v>2262.074502247913</v>
+        <v>-0.243065693430657</v>
+      </c>
+      <c r="AQ4">
+        <v>50.18315018315018</v>
       </c>
     </row>
     <row r="5">
@@ -981,121 +993,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.08900000000000001</v>
+        <v>0.0392</v>
       </c>
       <c r="E5">
-        <v>-0.0169</v>
+        <v>-0.0877</v>
       </c>
       <c r="G5">
-        <v>0.197875</v>
+        <v>0.1949064449064449</v>
       </c>
       <c r="H5">
-        <v>0.1920454545454545</v>
+        <v>0.1798336798336798</v>
       </c>
       <c r="I5">
-        <v>0.1748033361099018</v>
+        <v>0.1455301455301455</v>
       </c>
       <c r="J5">
-        <v>0.1398426688879214</v>
+        <v>0.119782504397889</v>
       </c>
       <c r="K5">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="L5">
-        <v>0.1295454545454545</v>
+        <v>0.1112266112266112</v>
       </c>
       <c r="M5">
-        <v>10.089</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="N5">
-        <v>0.04138228055783429</v>
+        <v>0.03582541054451167</v>
       </c>
       <c r="O5">
-        <v>0.8849999999999999</v>
+        <v>0.7747663551401869</v>
       </c>
       <c r="P5">
-        <v>9.859999999999999</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.04044298605414274</v>
+        <v>0.03582541054451167</v>
       </c>
       <c r="R5">
-        <v>0.8649122807017543</v>
+        <v>0.7747663551401869</v>
       </c>
       <c r="S5">
-        <v>0.2289999999999992</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02269798790762209</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>13.1</v>
+        <v>18.4</v>
       </c>
       <c r="V5">
-        <v>0.05373256767842494</v>
+        <v>0.07951598962834917</v>
       </c>
       <c r="W5">
-        <v>0.223091976516634</v>
+        <v>0.2291220556745182</v>
       </c>
       <c r="X5">
-        <v>0.0273544218487352</v>
+        <v>0.01736251697943017</v>
       </c>
       <c r="Y5">
-        <v>0.1957375546678988</v>
+        <v>0.211759538695088</v>
       </c>
       <c r="Z5">
-        <v>4.134069351384204</v>
+        <v>2.161797752808989</v>
       </c>
       <c r="AA5">
-        <v>0.5781192914653253</v>
+        <v>0.2589455488331893</v>
       </c>
       <c r="AB5">
-        <v>0.02713324531259305</v>
+        <v>0.01714931928500262</v>
       </c>
       <c r="AC5">
-        <v>0.5509860461527322</v>
+        <v>0.2417962295481866</v>
       </c>
       <c r="AD5">
-        <v>10.9</v>
+        <v>13.3</v>
       </c>
       <c r="AE5">
-        <v>5.986532111643234</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>16.88653211164323</v>
+        <v>13.3</v>
       </c>
       <c r="AG5">
-        <v>3.786532111643234</v>
+        <v>-5.099999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.06477715582334458</v>
+        <v>0.05435226808336738</v>
       </c>
       <c r="AI5">
-        <v>0.2655677476166555</v>
+        <v>0.2003012048192771</v>
       </c>
       <c r="AJ5">
-        <v>0.01529377256245824</v>
+        <v>-0.02253645603181616</v>
       </c>
       <c r="AK5">
-        <v>0.0750008359312519</v>
+        <v>-0.10625</v>
       </c>
       <c r="AL5">
-        <v>0.171</v>
+        <v>1.04</v>
       </c>
       <c r="AM5">
-        <v>0.171</v>
+        <v>1.04</v>
       </c>
       <c r="AN5">
-        <v>0.6028761061946902</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="AO5">
-        <v>84.21052631578947</v>
+        <v>13.46153846153846</v>
       </c>
       <c r="AP5">
-        <v>0.2094320858209753</v>
+        <v>-0.3167701863354035</v>
       </c>
       <c r="AQ5">
-        <v>84.21052631578947</v>
+        <v>13.46153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -1114,44 +1126,41 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F6">
-        <v>0.613</v>
-      </c>
       <c r="G6">
-        <v>0.2909465020576132</v>
+        <v>0.269811320754717</v>
       </c>
       <c r="H6">
-        <v>0.2909465020576132</v>
+        <v>0.269811320754717</v>
       </c>
       <c r="I6">
-        <v>0.3019897710139941</v>
+        <v>0.2713141036724213</v>
       </c>
       <c r="J6">
-        <v>0.2116473254718863</v>
+        <v>0.1771349273976419</v>
       </c>
       <c r="K6">
-        <v>4.99</v>
+        <v>3.62</v>
       </c>
       <c r="L6">
-        <v>0.2053497942386831</v>
+        <v>0.1366037735849057</v>
       </c>
       <c r="M6">
-        <v>0.376</v>
+        <v>0.612</v>
       </c>
       <c r="N6">
-        <v>0.003550519357884797</v>
+        <v>0.005762711864406779</v>
       </c>
       <c r="O6">
-        <v>0.07535070140280561</v>
+        <v>0.169060773480663</v>
       </c>
       <c r="P6">
-        <v>0.376</v>
+        <v>0.612</v>
       </c>
       <c r="Q6">
-        <v>0.003550519357884797</v>
+        <v>0.005762711864406779</v>
       </c>
       <c r="R6">
-        <v>0.07535070140280561</v>
+        <v>0.169060773480663</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1160,70 +1169,70 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>34.4</v>
+        <v>21.9</v>
       </c>
       <c r="V6">
-        <v>0.3248347497639282</v>
+        <v>0.2062146892655367</v>
       </c>
       <c r="W6">
-        <v>0.2654255319148936</v>
+        <v>0.06779026217228465</v>
       </c>
       <c r="X6">
-        <v>0.02699961205157666</v>
+        <v>0.01705685652655254</v>
       </c>
       <c r="Y6">
-        <v>0.2384259198633169</v>
+        <v>0.05073340564573211</v>
       </c>
       <c r="Z6">
-        <v>2.690063854074349</v>
+        <v>1.385919384935404</v>
       </c>
       <c r="AA6">
-        <v>0.5693448200634306</v>
+        <v>0.2454947296295174</v>
       </c>
       <c r="AB6">
-        <v>0.02699798387727993</v>
+        <v>0.01705799704804752</v>
       </c>
       <c r="AC6">
-        <v>0.5423468361861506</v>
+        <v>0.2284367325814699</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.4332428217997177</v>
+        <v>0.1208812634041724</v>
       </c>
       <c r="AF6">
-        <v>0.4332428217997177</v>
+        <v>0.1208812634041724</v>
       </c>
       <c r="AG6">
-        <v>-33.96675717820028</v>
+        <v>-21.77911873659583</v>
       </c>
       <c r="AH6">
-        <v>0.004074387372214112</v>
+        <v>0.001136947530604977</v>
       </c>
       <c r="AI6">
-        <v>0.008032945900011815</v>
+        <v>0.002157789393490646</v>
       </c>
       <c r="AJ6">
-        <v>-0.4721983306431236</v>
+        <v>-0.2579826034822135</v>
       </c>
       <c r="AK6">
-        <v>-1.73892054115522</v>
+        <v>-0.6382929728123606</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.039</v>
+        <v>-0.024</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>-4.550134920053622</v>
+        <v>-2.994104857931788</v>
       </c>
       <c r="AQ6">
-        <v>-180.2564102564103</v>
+        <v>-295.4166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1243,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ClearView Wealth Limited (ASX:CVW)</t>
+          <t>Money3 Corporation Limited (ASX:MNY)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1243,121 +1252,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.109</v>
+        <v>0.124</v>
       </c>
       <c r="E7">
-        <v>-0.222</v>
+        <v>0.117</v>
       </c>
       <c r="G7">
-        <v>0.234443746071653</v>
+        <v>0.5834112149532711</v>
       </c>
       <c r="H7">
-        <v>0.234443746071653</v>
+        <v>0.5514018691588786</v>
       </c>
       <c r="I7">
-        <v>0.2337122227975339</v>
+        <v>0.5432242990654206</v>
       </c>
       <c r="J7">
-        <v>0.2304717956593595</v>
+        <v>0.3751184011113917</v>
       </c>
       <c r="K7">
-        <v>2.78</v>
+        <v>16.7</v>
       </c>
       <c r="L7">
-        <v>0.00873664362036455</v>
+        <v>0.1950934579439252</v>
       </c>
       <c r="M7">
-        <v>8.68</v>
+        <v>11.5</v>
       </c>
       <c r="N7">
-        <v>0.0415311004784689</v>
+        <v>0.0253359770874642</v>
       </c>
       <c r="O7">
-        <v>3.122302158273381</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="P7">
-        <v>5.74</v>
+        <v>11.5</v>
       </c>
       <c r="Q7">
-        <v>0.02746411483253589</v>
+        <v>0.0253359770874642</v>
       </c>
       <c r="R7">
-        <v>2.064748201438849</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="S7">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.3387096774193548</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>140.4</v>
+        <v>30.7</v>
       </c>
       <c r="V7">
-        <v>0.6717703349282297</v>
+        <v>0.06763604318131747</v>
       </c>
       <c r="W7">
-        <v>0.008460133901399877</v>
+        <v>0.09928656361474436</v>
       </c>
       <c r="X7">
-        <v>0.02731763365197433</v>
+        <v>0.01847070004450005</v>
       </c>
       <c r="Y7">
-        <v>-0.01885749975057445</v>
+        <v>0.08081586357024431</v>
       </c>
       <c r="Z7">
-        <v>1.713850024932755</v>
+        <v>0.3797692990239573</v>
       </c>
       <c r="AA7">
-        <v>0.3949940927370901</v>
+        <v>0.1424584522410609</v>
       </c>
       <c r="AB7">
-        <v>0.02711892994309429</v>
+        <v>0.01838550506407993</v>
       </c>
       <c r="AC7">
-        <v>0.3678751627939958</v>
+        <v>0.124072947176981</v>
       </c>
       <c r="AD7">
-        <v>10.5</v>
+        <v>118.8</v>
       </c>
       <c r="AE7">
-        <v>2.563853529123622</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>13.06385352912362</v>
+        <v>118.8</v>
       </c>
       <c r="AG7">
-        <v>-127.3361464708764</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.05882926609399895</v>
+        <v>0.2074384494499738</v>
       </c>
       <c r="AI7">
-        <v>0.01339657277271451</v>
+        <v>0.407826982492276</v>
       </c>
       <c r="AJ7">
-        <v>-1.559271831636805</v>
+        <v>0.1625461254612546</v>
       </c>
       <c r="AK7">
-        <v>-0.152541519296192</v>
+        <v>0.3380660015349194</v>
       </c>
       <c r="AL7">
-        <v>0.495</v>
+        <v>14.2</v>
       </c>
       <c r="AM7">
-        <v>0.495</v>
+        <v>14.2</v>
       </c>
       <c r="AN7">
-        <v>0.137650760356581</v>
+        <v>2.516949152542373</v>
       </c>
       <c r="AO7">
-        <v>147.8787878787879</v>
+        <v>3.274647887323944</v>
       </c>
       <c r="AP7">
-        <v>-1.669325465008867</v>
+        <v>1.866525423728813</v>
       </c>
       <c r="AQ7">
-        <v>147.8787878787879</v>
+        <v>3.274647887323944</v>
       </c>
     </row>
     <row r="8">
@@ -1368,7 +1377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mortgage Choice Limited (ASX:MOC)</t>
+          <t>WT Financial Group Limited (ASX:WTL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1377,115 +1386,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.00206</v>
-      </c>
-      <c r="E8">
-        <v>-0.0707</v>
+        <v>0.0415</v>
       </c>
       <c r="G8">
-        <v>0.145639771801141</v>
+        <v>0.05450180072028812</v>
       </c>
       <c r="H8">
-        <v>0.1157294213528932</v>
+        <v>0.05450180072028812</v>
       </c>
       <c r="I8">
-        <v>0.115334002147165</v>
+        <v>0.02821128451380552</v>
       </c>
       <c r="J8">
-        <v>0.07949808005143874</v>
+        <v>0.02821128451380552</v>
       </c>
       <c r="K8">
-        <v>9.619999999999999</v>
+        <v>-0.277</v>
       </c>
       <c r="L8">
-        <v>0.07840260798696005</v>
+        <v>-0.03325330132052821</v>
       </c>
       <c r="M8">
-        <v>10.5</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.0958904109589041</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.091476091476091</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>10.5</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.0958904109589041</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.091476091476091</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>1.35</v>
+        <v>0.976</v>
       </c>
       <c r="V8">
-        <v>0.01232876712328767</v>
+        <v>0.1084444444444444</v>
       </c>
       <c r="W8">
-        <v>0.1517350157728707</v>
+        <v>-0.04601328903654486</v>
       </c>
       <c r="X8">
-        <v>0.0272146241272806</v>
+        <v>0.01785847422292428</v>
       </c>
       <c r="Y8">
-        <v>0.1245203916455901</v>
+        <v>-0.06387176325946914</v>
       </c>
       <c r="Z8">
-        <v>1.918908830700202</v>
+        <v>4.213454729387961</v>
       </c>
       <c r="AA8">
-        <v>0.1525495678344174</v>
+        <v>0.1188669701568032</v>
       </c>
       <c r="AB8">
-        <v>0.0270778595946134</v>
+        <v>0.01826378220564009</v>
       </c>
       <c r="AC8">
-        <v>0.125471708239804</v>
+        <v>0.1006031879511631</v>
       </c>
       <c r="AD8">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="AE8">
-        <v>3.022589682714257</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>4.772589682714257</v>
+        <v>1.34</v>
       </c>
       <c r="AG8">
-        <v>3.422589682714257</v>
+        <v>0.3640000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.04176495602283699</v>
+        <v>0.1295938104448743</v>
       </c>
       <c r="AI8">
-        <v>0.0730059755300809</v>
+        <v>0.1843191196698762</v>
       </c>
       <c r="AJ8">
-        <v>0.03030916747774669</v>
+        <v>0.03887227680478429</v>
       </c>
       <c r="AK8">
-        <v>0.05345909466761756</v>
+        <v>0.05783285668891009</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="AN8">
-        <v>0.1170098956940358</v>
+        <v>2.951541850220265</v>
+      </c>
+      <c r="AO8">
+        <v>1.211340206185567</v>
       </c>
       <c r="AP8">
-        <v>0.2288439210159305</v>
+        <v>0.8017621145374452</v>
+      </c>
+      <c r="AQ8">
+        <v>1.211340206185567</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yellow Brick Road Holdings Limited (ASX:YBR)</t>
+          <t>Mortgage Choice Limited (ASX:MOC)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1505,115 +1514,115 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.449</v>
+        <v>-0.0105</v>
+      </c>
+      <c r="E9">
+        <v>-0.13</v>
       </c>
       <c r="G9">
-        <v>0.04032033426183844</v>
+        <v>0.1129598662207358</v>
       </c>
       <c r="H9">
-        <v>0.04032033426183844</v>
+        <v>0.07993311036789298</v>
       </c>
       <c r="I9">
-        <v>0.03982709249514676</v>
+        <v>0.07859531772575251</v>
       </c>
       <c r="J9">
-        <v>0.03982709249514676</v>
+        <v>0.0544314381270903</v>
       </c>
       <c r="K9">
-        <v>-26.2</v>
+        <v>6.51</v>
       </c>
       <c r="L9">
-        <v>-0.1824512534818941</v>
+        <v>0.0544314381270903</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>5.18</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.03767272727272727</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>5.18</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.03767272727272727</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>2.84</v>
+        <v>4.22</v>
       </c>
       <c r="V9">
-        <v>0.1245614035087719</v>
+        <v>0.03069090909090909</v>
       </c>
       <c r="W9">
-        <v>-0.4851851851851852</v>
+        <v>0.1074257425742574</v>
       </c>
       <c r="X9">
-        <v>0.02853635642330157</v>
+        <v>0.01715327185542384</v>
       </c>
       <c r="Y9">
-        <v>-0.5137215416084867</v>
+        <v>0.09027247071883358</v>
       </c>
       <c r="Z9">
-        <v>3.548382127051792</v>
+        <v>1.960655737704918</v>
       </c>
       <c r="AA9">
-        <v>0.1413217431822173</v>
+        <v>0.1067213114754098</v>
       </c>
       <c r="AB9">
-        <v>0.02810529183700551</v>
+        <v>0.01717009907295345</v>
       </c>
       <c r="AC9">
-        <v>0.1132164513452118</v>
+        <v>0.08955121240245639</v>
       </c>
       <c r="AD9">
-        <v>5.05</v>
+        <v>2.6</v>
       </c>
       <c r="AE9">
-        <v>1.479147588484631</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>6.52914758848463</v>
+        <v>2.6</v>
       </c>
       <c r="AG9">
-        <v>3.68914758848463</v>
+        <v>-1.62</v>
       </c>
       <c r="AH9">
-        <v>0.2226163433078478</v>
+        <v>0.0185581727337616</v>
       </c>
       <c r="AI9">
-        <v>0.2070829086057901</v>
+        <v>0.040625</v>
       </c>
       <c r="AJ9">
-        <v>0.1392701511500648</v>
+        <v>-0.01192228436856049</v>
       </c>
       <c r="AK9">
-        <v>0.1285903520523348</v>
+        <v>-0.02709936433589829</v>
       </c>
       <c r="AL9">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.7668944570994685</v>
-      </c>
-      <c r="AO9">
-        <v>13.7730870712401</v>
+        <v>0.2719665271966527</v>
       </c>
       <c r="AP9">
-        <v>0.5602350172338086</v>
-      </c>
-      <c r="AQ9">
-        <v>13.7730870712401</v>
+        <v>-0.1694560669456066</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Money3 Corporation Limited (ASX:MNY)</t>
+          <t>Earlypay Ltd (ASX:EPY)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1633,46 +1642,49 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.161</v>
+        <v>0.153</v>
       </c>
       <c r="E10">
-        <v>0.301</v>
+        <v>1.93</v>
+      </c>
+      <c r="F10">
+        <v>0.147</v>
       </c>
       <c r="G10">
-        <v>0.5630793157076205</v>
+        <v>0.3640853658536586</v>
       </c>
       <c r="H10">
-        <v>0.5489891135303265</v>
+        <v>0.3628048780487805</v>
       </c>
       <c r="I10">
-        <v>0.5381050263489457</v>
+        <v>0.3465559883847947</v>
       </c>
       <c r="J10">
-        <v>0.3686453386156689</v>
+        <v>0.2805664135997028</v>
       </c>
       <c r="K10">
-        <v>20.5</v>
+        <v>2.54</v>
       </c>
       <c r="L10">
-        <v>0.3188180404354588</v>
+        <v>0.07743902439024392</v>
       </c>
       <c r="M10">
-        <v>9.32</v>
+        <v>1.83</v>
       </c>
       <c r="N10">
-        <v>0.03164685908319185</v>
+        <v>0.02768532526475038</v>
       </c>
       <c r="O10">
-        <v>0.4546341463414634</v>
+        <v>0.7204724409448819</v>
       </c>
       <c r="P10">
-        <v>9.32</v>
+        <v>1.83</v>
       </c>
       <c r="Q10">
-        <v>0.03164685908319185</v>
+        <v>0.02768532526475038</v>
       </c>
       <c r="R10">
-        <v>0.4546341463414634</v>
+        <v>0.7204724409448819</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1681,73 +1693,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>25.5</v>
+        <v>26.4</v>
       </c>
       <c r="V10">
-        <v>0.0865874363327674</v>
+        <v>0.3993948562783661</v>
       </c>
       <c r="W10">
-        <v>0.1264651449722394</v>
+        <v>0.08089171974522294</v>
       </c>
       <c r="X10">
-        <v>0.02877869747802481</v>
+        <v>0.02755647382663778</v>
       </c>
       <c r="Y10">
-        <v>0.09768644749421457</v>
+        <v>0.05333524591858516</v>
       </c>
       <c r="Z10">
-        <v>0.3404922598282195</v>
+        <v>0.3776416874872285</v>
       </c>
       <c r="AA10">
-        <v>0.1255208844203883</v>
+        <v>0.1059535738840315</v>
       </c>
       <c r="AB10">
-        <v>0.02757571213340913</v>
+        <v>0.02129407356629345</v>
       </c>
       <c r="AC10">
-        <v>0.09794517228697912</v>
+        <v>0.08465950031773802</v>
       </c>
       <c r="AD10">
-        <v>95.40000000000001</v>
+        <v>127.9</v>
       </c>
       <c r="AE10">
-        <v>2.044234028813944</v>
+        <v>0.09481790489368003</v>
       </c>
       <c r="AF10">
-        <v>97.44423402881395</v>
+        <v>127.9948179048937</v>
       </c>
       <c r="AG10">
-        <v>71.94423402881395</v>
+        <v>101.5948179048937</v>
       </c>
       <c r="AH10">
-        <v>0.2486175980373021</v>
+        <v>0.6594447975814123</v>
       </c>
       <c r="AI10">
-        <v>0.3659956595276658</v>
+        <v>0.7762209845716147</v>
       </c>
       <c r="AJ10">
-        <v>0.1963306482894663</v>
+        <v>0.6058315884424771</v>
       </c>
       <c r="AK10">
-        <v>0.2988409434562124</v>
+        <v>0.7335640382924671</v>
       </c>
       <c r="AL10">
-        <v>8.09</v>
+        <v>6.51</v>
       </c>
       <c r="AM10">
-        <v>8.09</v>
+        <v>6.51</v>
       </c>
       <c r="AN10">
-        <v>2.656715586621738</v>
+        <v>10.67078257967629</v>
       </c>
       <c r="AO10">
-        <v>4.252163164400494</v>
+        <v>1.7357910906298</v>
       </c>
       <c r="AP10">
-        <v>2.003515386917317</v>
+        <v>8.476123636316844</v>
       </c>
       <c r="AQ10">
-        <v>4.252163164400494</v>
+        <v>1.7357910906298</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CML Group Limited (ASX:CGR)</t>
+          <t>Eclipx Group Limited (ASX:ECX)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1767,124 +1779,118 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.193</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E11">
-        <v>0.498</v>
-      </c>
-      <c r="F11">
-        <v>0.135</v>
+        <v>-0.0796</v>
       </c>
       <c r="G11">
-        <v>0.432185628742515</v>
+        <v>0.3815642458100558</v>
       </c>
       <c r="H11">
-        <v>0.4311377245508982</v>
+        <v>0.3693358162631906</v>
       </c>
       <c r="I11">
-        <v>0.4103388406807059</v>
+        <v>0.09600662114628594</v>
       </c>
       <c r="J11">
-        <v>0.288068625936753</v>
+        <v>0.06846787981748285</v>
       </c>
       <c r="K11">
-        <v>5.89</v>
+        <v>13.1</v>
       </c>
       <c r="L11">
-        <v>0.1763473053892216</v>
+        <v>0.0271053176081109</v>
       </c>
       <c r="M11">
-        <v>2.47</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.03110831234256927</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.4193548387096775</v>
+        <v>-0</v>
       </c>
       <c r="P11">
-        <v>2.47</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.03110831234256927</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.4193548387096775</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>14.8</v>
+        <v>40</v>
       </c>
       <c r="V11">
-        <v>0.1863979848866499</v>
+        <v>0.09269988412514485</v>
       </c>
       <c r="W11">
-        <v>0.1983164983164983</v>
+        <v>0.04036979969183359</v>
       </c>
       <c r="X11">
-        <v>0.03249542009731138</v>
+        <v>0.02964055318013051</v>
       </c>
       <c r="Y11">
-        <v>0.1658210782191869</v>
+        <v>0.01072924651170308</v>
       </c>
       <c r="Z11">
-        <v>0.3224610112966759</v>
+        <v>0.4527824620573356</v>
       </c>
       <c r="AA11">
-        <v>0.0928909004424092</v>
+        <v>0.03100105519560565</v>
       </c>
       <c r="AB11">
-        <v>0.02818885599252444</v>
+        <v>0.0215475828428436</v>
       </c>
       <c r="AC11">
-        <v>0.06470204444988475</v>
+        <v>0.009453472352762043</v>
       </c>
       <c r="AD11">
-        <v>79.2</v>
+        <v>1001.3</v>
       </c>
       <c r="AE11">
-        <v>1.27841360632211</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>80.47841360632211</v>
+        <v>1001.3</v>
       </c>
       <c r="AG11">
-        <v>65.67841360632211</v>
+        <v>961.3</v>
       </c>
       <c r="AH11">
-        <v>0.5033726054130657</v>
+        <v>0.6988414293690676</v>
       </c>
       <c r="AI11">
-        <v>0.7193381726836925</v>
+        <v>0.7331234441353053</v>
       </c>
       <c r="AJ11">
-        <v>0.4527097586312457</v>
+        <v>0.6901924181504883</v>
       </c>
       <c r="AK11">
-        <v>0.6765501326861906</v>
+        <v>0.725071654849902</v>
       </c>
       <c r="AL11">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="AM11">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="AN11">
-        <v>5.329385640266469</v>
+        <v>5.609523809523809</v>
       </c>
       <c r="AO11">
-        <v>2.647058823529412</v>
+        <v>4.034782608695652</v>
       </c>
       <c r="AP11">
-        <v>4.41951508016433</v>
+        <v>5.385434173669467</v>
       </c>
       <c r="AQ11">
-        <v>2.647058823529412</v>
+        <v>4.034782608695652</v>
       </c>
     </row>
     <row r="12">
@@ -1895,7 +1901,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Collection House Limited (ASX:CLH)</t>
+          <t>AMP Limited (ASX:AMP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1904,124 +1910,124 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.08449999999999999</v>
+        <v>0.0442</v>
       </c>
       <c r="E12">
-        <v>0.104</v>
+        <v>-0.512</v>
       </c>
       <c r="F12">
-        <v>-0.0206</v>
+        <v>0.0513</v>
       </c>
       <c r="G12">
-        <v>0.3401240035429584</v>
+        <v>0.05701147729438307</v>
       </c>
       <c r="H12">
-        <v>0.3401240035429584</v>
+        <v>0.05701147729438307</v>
       </c>
       <c r="I12">
-        <v>0.2984798905703401</v>
+        <v>0.06591298895302732</v>
       </c>
       <c r="J12">
-        <v>0.2102039752219225</v>
+        <v>0.03295649447651366</v>
       </c>
       <c r="K12">
-        <v>21.5</v>
+        <v>19.3</v>
       </c>
       <c r="L12">
-        <v>0.1904340124003543</v>
+        <v>0.001186458390965703</v>
       </c>
       <c r="M12">
-        <v>7.93</v>
+        <v>15.15</v>
       </c>
       <c r="N12">
-        <v>0.07157039711191336</v>
+        <v>0.003665174791339059</v>
       </c>
       <c r="O12">
-        <v>0.3688372093023256</v>
+        <v>0.7849740932642486</v>
       </c>
       <c r="P12">
-        <v>7.72</v>
+        <v>11.7</v>
       </c>
       <c r="Q12">
-        <v>0.06967509025270759</v>
+        <v>0.002830531026974719</v>
       </c>
       <c r="R12">
-        <v>0.3590697674418605</v>
+        <v>0.6062176165803108</v>
       </c>
       <c r="S12">
-        <v>0.21</v>
+        <v>3.449999999999999</v>
       </c>
       <c r="T12">
-        <v>0.02648171500630517</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="U12">
-        <v>1.12</v>
+        <v>2673.3</v>
       </c>
       <c r="V12">
-        <v>0.01010830324909747</v>
+        <v>0.6467400508044031</v>
       </c>
       <c r="W12">
-        <v>0.1407068062827225</v>
+        <v>0.006435693087465404</v>
       </c>
       <c r="X12">
-        <v>0.03548051813053188</v>
+        <v>0.04083614945476537</v>
       </c>
       <c r="Y12">
-        <v>0.1052262881521906</v>
+        <v>-0.03440045636729996</v>
       </c>
       <c r="Z12">
-        <v>0.4297970788186606</v>
+        <v>1.015177518301017</v>
       </c>
       <c r="AA12">
-        <v>0.0903450545064524</v>
+        <v>0.03345669227456829</v>
       </c>
       <c r="AB12">
-        <v>0.0258840888879662</v>
+        <v>0.02491224924718928</v>
       </c>
       <c r="AC12">
-        <v>0.0644609656184862</v>
+        <v>0.008544443027379018</v>
       </c>
       <c r="AD12">
-        <v>147.7</v>
+        <v>18121.4</v>
       </c>
       <c r="AE12">
-        <v>25.35810177304304</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>173.058101773043</v>
+        <v>18121.4</v>
       </c>
       <c r="AG12">
-        <v>171.938101773043</v>
+        <v>15448.1</v>
       </c>
       <c r="AH12">
-        <v>0.6096641268721319</v>
+        <v>0.8142656224022575</v>
       </c>
       <c r="AI12">
-        <v>0.5185135607306496</v>
+        <v>0.8370393636775153</v>
       </c>
       <c r="AJ12">
-        <v>0.6081179037944437</v>
+        <v>0.7889089757731749</v>
       </c>
       <c r="AK12">
-        <v>0.5168923850171421</v>
+        <v>0.8140819241045315</v>
       </c>
       <c r="AL12">
-        <v>5.37</v>
+        <v>361.8</v>
       </c>
       <c r="AM12">
-        <v>5.37</v>
+        <v>361.8</v>
       </c>
       <c r="AN12">
-        <v>3.631669535283993</v>
+        <v>16.24217979743659</v>
       </c>
       <c r="AO12">
-        <v>6.797020484171322</v>
+        <v>2.963515754560531</v>
       </c>
       <c r="AP12">
-        <v>4.227639581338653</v>
+        <v>13.84610558393834</v>
       </c>
       <c r="AQ12">
-        <v>6.797020484171322</v>
+        <v>2.963515754560531</v>
       </c>
     </row>
     <row r="13">
@@ -2032,7 +2038,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Genworth Mortgage Insurance Australia Limited (ASX:GMA)</t>
+          <t>Wisr Limited (ASX:WZR)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2040,116 +2046,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D13">
+        <v>0.515</v>
+      </c>
       <c r="G13">
-        <v>0.2775214238628873</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.2775214238628873</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4297399770442072</v>
+        <v>0.02538020385075897</v>
       </c>
       <c r="J13">
-        <v>0.3035745397047483</v>
+        <v>0.02538020385075897</v>
       </c>
       <c r="K13">
-        <v>85.90000000000001</v>
+        <v>-16.2</v>
       </c>
       <c r="L13">
-        <v>0.2831245880026368</v>
+        <v>-12.75590551181102</v>
       </c>
       <c r="M13">
-        <v>49.9125</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.0471851956891662</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.5810535506402794</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>49.9125</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.0471851956891662</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.5810535506402794</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>17.6</v>
+        <v>26.2</v>
       </c>
       <c r="V13">
-        <v>0.0166383059179429</v>
+        <v>0.1588841722255913</v>
       </c>
       <c r="W13">
-        <v>0.06887427838357922</v>
+        <v>-1.372881355932203</v>
       </c>
       <c r="X13">
-        <v>0.02771760693651699</v>
+        <v>0.01902605582698352</v>
       </c>
       <c r="Y13">
-        <v>0.04115667144706223</v>
+        <v>-1.391907411759187</v>
       </c>
       <c r="Z13">
-        <v>0.2242532880423114</v>
+        <v>0.26300335680109</v>
       </c>
       <c r="AA13">
-        <v>0.06807758869472103</v>
+        <v>0.00667507880904556</v>
       </c>
       <c r="AB13">
-        <v>0.02726543112541921</v>
+        <v>0.01954918810792864</v>
       </c>
       <c r="AC13">
-        <v>0.04081215756930182</v>
+        <v>-0.01287410929888308</v>
       </c>
       <c r="AD13">
-        <v>134.3</v>
+        <v>60</v>
       </c>
       <c r="AE13">
-        <v>9.534454823937578</v>
+        <v>0.03883570554768054</v>
       </c>
       <c r="AF13">
-        <v>143.8344548239376</v>
+        <v>60.03883570554768</v>
       </c>
       <c r="AG13">
-        <v>126.2344548239376</v>
+        <v>33.83883570554768</v>
       </c>
       <c r="AH13">
-        <v>0.1196990101661258</v>
+        <v>0.266911827462913</v>
       </c>
       <c r="AI13">
-        <v>0.1163112140882534</v>
+        <v>0.7076810426056058</v>
       </c>
       <c r="AJ13">
-        <v>0.1066138356951009</v>
+        <v>0.1702678572379454</v>
       </c>
       <c r="AK13">
-        <v>0.1035528194665912</v>
+        <v>0.5770720939185747</v>
       </c>
       <c r="AL13">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>1.011371338203178</v>
-      </c>
-      <c r="AO13">
-        <v>15.74545454545455</v>
+        <v>1500</v>
       </c>
       <c r="AP13">
-        <v>0.9506322375475382</v>
-      </c>
-      <c r="AQ13">
-        <v>15.74545454545455</v>
+        <v>845.970892638692</v>
       </c>
     </row>
     <row r="14">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Moneyme Limited (ASX:MME)</t>
+          <t>Asset Resolution Limited (NSX:ASS)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2168,23 +2168,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D14">
+        <v>-0.454</v>
+      </c>
       <c r="G14">
-        <v>0.1533052039381153</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01221929978153042</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01221929978153042</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.227</v>
+        <v>-0.137</v>
       </c>
       <c r="L14">
-        <v>0.03192686357243319</v>
+        <v>-1.212389380530974</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2193,7 +2196,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2202,67 +2205,67 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.3168539325842696</v>
+      </c>
+      <c r="W14">
+        <v>-0.02078907435508346</v>
       </c>
       <c r="X14">
-        <v>0.02702151753506778</v>
+        <v>0.01705068102297429</v>
+      </c>
+      <c r="Y14">
+        <v>-0.03783975537805775</v>
       </c>
       <c r="Z14">
-        <v>5.076381721284322</v>
+        <v>0.05113122171945702</v>
       </c>
       <c r="AA14">
-        <v>0.06202983005785454</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.02701812456350747</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC14">
-        <v>0.03501170549434707</v>
+        <v>-0.01705068102297429</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>1.400603892766593</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.400603892766593</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1.400603892766593</v>
+        <v>-2.82</v>
       </c>
       <c r="AH14">
-        <v>0.008049419722874986</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.008049419722874986</v>
+        <v>-0.4638157894736842</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>-0.7988668555240793</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>3.816359380835404</v>
       </c>
     </row>
     <row r="15">
@@ -2273,7 +2276,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Challenger Limited (ASX:CGF)</t>
+          <t>Credit Corp Group Limited (ASX:CCP)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2282,124 +2285,109 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.09369999999999999</v>
+        <v>0.0808</v>
       </c>
       <c r="E15">
-        <v>-0.0201</v>
-      </c>
-      <c r="F15">
-        <v>0.0309</v>
+        <v>-0.166</v>
       </c>
       <c r="G15">
-        <v>0.2212801113140273</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2212801113140273</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2167295636326945</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1538285730148669</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>215.8</v>
+        <v>10.7</v>
       </c>
       <c r="L15">
-        <v>0.09383424645621358</v>
+        <v>0.06048615036743923</v>
       </c>
       <c r="M15">
-        <v>184.6</v>
+        <v>27.3</v>
       </c>
       <c r="N15">
-        <v>0.05358179496110532</v>
+        <v>0.0176996887966805</v>
       </c>
       <c r="O15">
-        <v>0.855421686746988</v>
+        <v>2.551401869158879</v>
       </c>
       <c r="P15">
-        <v>151.3</v>
+        <v>27.3</v>
       </c>
       <c r="Q15">
-        <v>0.04391617322651806</v>
+        <v>0.0176996887966805</v>
       </c>
       <c r="R15">
-        <v>0.701112140871177</v>
+        <v>2.551401869158879</v>
       </c>
       <c r="S15">
-        <v>33.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.1803900325027086</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>555.3</v>
+        <v>33.6</v>
       </c>
       <c r="V15">
-        <v>0.1611807732497388</v>
+        <v>0.02178423236514523</v>
       </c>
       <c r="W15">
-        <v>0.08370830100853376</v>
+        <v>0.03291294986158105</v>
       </c>
       <c r="X15">
-        <v>0.03523934951155019</v>
+        <v>0.01717696124477625</v>
       </c>
       <c r="Y15">
-        <v>0.04846895149698356</v>
+        <v>0.01573598861680479</v>
       </c>
       <c r="Z15">
-        <v>0.3442749047780655</v>
+        <v>0.4327945216874337</v>
       </c>
       <c r="AA15">
-        <v>0.05295931732683901</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.02796399496269525</v>
+        <v>0.01719704683770062</v>
       </c>
       <c r="AC15">
-        <v>0.02499532236414377</v>
+        <v>-0.01719704683770062</v>
       </c>
       <c r="AD15">
-        <v>5185.2</v>
+        <v>35.9</v>
       </c>
       <c r="AE15">
-        <v>43.22674778764501</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>5228.426747787645</v>
+        <v>35.9</v>
       </c>
       <c r="AG15">
-        <v>4673.126747787644</v>
+        <v>2.299999999999997</v>
       </c>
       <c r="AH15">
-        <v>0.6027959122314369</v>
+        <v>0.02274599252360134</v>
       </c>
       <c r="AI15">
-        <v>0.6730181430426684</v>
+        <v>0.08045719408337068</v>
       </c>
       <c r="AJ15">
-        <v>0.5756268370278562</v>
+        <v>0.001488962258043631</v>
       </c>
       <c r="AK15">
-        <v>0.6478462589014023</v>
+        <v>0.005574406204556464</v>
       </c>
       <c r="AL15">
-        <v>266.5</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>266.5</v>
-      </c>
-      <c r="AN15">
-        <v>10.06287843502562</v>
-      </c>
-      <c r="AO15">
-        <v>1.878799249530957</v>
-      </c>
-      <c r="AP15">
-        <v>9.069101746211079</v>
-      </c>
-      <c r="AQ15">
-        <v>1.878799249530957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2410,7 +2398,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wisr Limited (ASX:WZR)</t>
+          <t>Auswide Bank Ltd (ASX:ABA)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2418,107 +2406,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.0508</v>
+      </c>
+      <c r="E16">
+        <v>0.0689</v>
+      </c>
       <c r="G16">
-        <v>0.01542553191489362</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0601388256057399</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0601388256057399</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-5.42</v>
+        <v>12.8</v>
       </c>
       <c r="L16">
-        <v>-2.882978723404256</v>
+        <v>0.2419659735349717</v>
       </c>
       <c r="M16">
-        <v>-0</v>
+        <v>9.42</v>
       </c>
       <c r="N16">
-        <v>-0</v>
+        <v>0.04815950920245399</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.7359374999999999</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.04785276073619632</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.73125</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.0600000000000005</v>
+      </c>
+      <c r="T16">
+        <v>0.00636942675159241</v>
       </c>
       <c r="U16">
-        <v>8.41</v>
+        <v>56.9</v>
       </c>
       <c r="V16">
-        <v>0.09191256830601092</v>
+        <v>0.2908997955010225</v>
       </c>
       <c r="W16">
-        <v>-1.571014492753623</v>
+        <v>0.07655502392344499</v>
       </c>
       <c r="X16">
-        <v>0.0270680572651914</v>
+        <v>0.02927741996187484</v>
       </c>
       <c r="Y16">
-        <v>-1.598082550018814</v>
+        <v>0.04727760396157014</v>
       </c>
       <c r="Z16">
-        <v>0.6961171004642841</v>
+        <v>0.1018678990949355</v>
       </c>
       <c r="AA16">
-        <v>0.0418636649059949</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.02784859129241072</v>
+        <v>0.01830769224472457</v>
       </c>
       <c r="AC16">
-        <v>0.01401507361358418</v>
+        <v>-0.01830769224472457</v>
       </c>
       <c r="AD16">
-        <v>1.4</v>
+        <v>440.8</v>
       </c>
       <c r="AE16">
-        <v>0.124695039306045</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.524695039306045</v>
+        <v>440.8</v>
       </c>
       <c r="AG16">
-        <v>-6.885304960693955</v>
+        <v>383.9</v>
       </c>
       <c r="AH16">
-        <v>0.01639021808845286</v>
+        <v>0.6926461345065996</v>
       </c>
       <c r="AI16">
-        <v>0.1144262615248155</v>
+        <v>0.7251192630366837</v>
       </c>
       <c r="AJ16">
-        <v>-0.08137244904677049</v>
+        <v>0.6624676445211389</v>
       </c>
       <c r="AK16">
-        <v>-1.40096280758575</v>
+        <v>0.6967332123411979</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>10.14492753623188</v>
-      </c>
-      <c r="AP16">
-        <v>-49.8935142079272</v>
       </c>
     </row>
     <row r="17">
@@ -2529,7 +2520,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMP Limited (ASX:AMP)</t>
+          <t>FSA Group Limited (ASX:FSA)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2538,121 +2529,109 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.0145</v>
-      </c>
-      <c r="F17">
-        <v>0.252</v>
+        <v>0.021</v>
+      </c>
+      <c r="E17">
+        <v>0.0212</v>
       </c>
       <c r="G17">
-        <v>0.01721475214449984</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.01721475214449984</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0454384394643827</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0454384394643827</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-1668.1</v>
+        <v>11.3</v>
       </c>
       <c r="L17">
-        <v>-0.1400094005472461</v>
+        <v>0.2368972746331237</v>
       </c>
       <c r="M17">
-        <v>273.5</v>
+        <v>5.42</v>
       </c>
       <c r="N17">
-        <v>0.05947979644208604</v>
+        <v>0.04896115627822945</v>
       </c>
       <c r="O17">
-        <v>-0.1639589952640729</v>
+        <v>0.479646017699115</v>
       </c>
       <c r="P17">
-        <v>273.5</v>
+        <v>5.18</v>
       </c>
       <c r="Q17">
-        <v>0.05947979644208604</v>
+        <v>0.04679313459801265</v>
       </c>
       <c r="R17">
-        <v>-0.1639589952640729</v>
+        <v>0.4584070796460176</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.04428044280442808</v>
       </c>
       <c r="U17">
-        <v>2484.9</v>
+        <v>27.6</v>
       </c>
       <c r="V17">
-        <v>0.5404071158279327</v>
+        <v>0.2493224932249322</v>
       </c>
       <c r="W17">
-        <v>-0.32398469516577</v>
+        <v>0.3165266106442577</v>
       </c>
       <c r="X17">
-        <v>0.0463352584190278</v>
+        <v>0.03276838999178638</v>
       </c>
       <c r="Y17">
-        <v>-0.3703199535847978</v>
+        <v>0.2837582206524713</v>
       </c>
       <c r="Z17">
-        <v>0.6615182773951874</v>
+        <v>0.1486036861191073</v>
       </c>
       <c r="AA17">
-        <v>0.03005835820200395</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.02825485496489841</v>
+        <v>0.01839978853057662</v>
       </c>
       <c r="AC17">
-        <v>0.001803503237105538</v>
+        <v>-0.01839978853057662</v>
       </c>
       <c r="AD17">
-        <v>15630.3</v>
+        <v>320.7</v>
       </c>
       <c r="AE17">
-        <v>719.686722667258</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>16349.98672266726</v>
+        <v>320.7</v>
       </c>
       <c r="AG17">
-        <v>13865.08672266726</v>
+        <v>293.1</v>
       </c>
       <c r="AH17">
-        <v>0.7804965145253141</v>
+        <v>0.7433936022253129</v>
       </c>
       <c r="AI17">
-        <v>0.8414128478553291</v>
+        <v>0.8808019774787147</v>
       </c>
       <c r="AJ17">
-        <v>0.7509544173218726</v>
+        <v>0.725854383358098</v>
       </c>
       <c r="AK17">
-        <v>0.8181591451809771</v>
+        <v>0.8710252600297177</v>
       </c>
       <c r="AL17">
-        <v>450.8</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>450.8</v>
-      </c>
-      <c r="AN17">
-        <v>22.08293303192992</v>
-      </c>
-      <c r="AO17">
-        <v>1.401286601597161</v>
-      </c>
-      <c r="AP17">
-        <v>19.58898943581132</v>
-      </c>
-      <c r="AQ17">
-        <v>1.401286601597161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2663,7 +2642,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Eclipx Group Limited (ASX:ECX)</t>
+          <t>MyState Limited (ASX:MYS)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2672,43 +2651,46 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.201</v>
+        <v>-0.0009299999999999999</v>
+      </c>
+      <c r="E18">
+        <v>-0.0156</v>
       </c>
       <c r="G18">
-        <v>0.3724682886254939</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3582865460594719</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.07385578783222801</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07385578783222801</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>-230.3</v>
+        <v>20.8</v>
       </c>
       <c r="L18">
-        <v>-0.4788937409024746</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="M18">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="N18">
-        <v>0.05290679790833589</v>
+        <v>0.04399659381209196</v>
       </c>
       <c r="O18">
-        <v>-0.07468519322622666</v>
+        <v>0.7451923076923077</v>
       </c>
       <c r="P18">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="Q18">
-        <v>0.05290679790833589</v>
+        <v>0.04399659381209196</v>
       </c>
       <c r="R18">
-        <v>-0.07468519322622666</v>
+        <v>0.7451923076923077</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2717,73 +2699,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>65.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="V18">
-        <v>0.2014764687788373</v>
+        <v>0.2282145898382061</v>
       </c>
       <c r="W18">
-        <v>-0.3664863144493953</v>
+        <v>0.09059233449477352</v>
       </c>
       <c r="X18">
-        <v>0.04587296524592226</v>
+        <v>0.03347187268450776</v>
       </c>
       <c r="Y18">
-        <v>-0.4123592796953176</v>
+        <v>0.05712046181026577</v>
       </c>
       <c r="Z18">
-        <v>0.3395793722512051</v>
+        <v>0.07837392418970883</v>
       </c>
       <c r="AA18">
-        <v>0.02507990206918618</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.03563866795088343</v>
+        <v>0.01841478411585513</v>
       </c>
       <c r="AC18">
-        <v>-0.01055876588169724</v>
+        <v>-0.01841478411585513</v>
       </c>
       <c r="AD18">
-        <v>1108.9</v>
+        <v>1066.3</v>
       </c>
       <c r="AE18">
-        <v>19.46375815740772</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1128.363758157408</v>
+        <v>1066.3</v>
       </c>
       <c r="AG18">
-        <v>1062.863758157408</v>
+        <v>985.9</v>
       </c>
       <c r="AH18">
-        <v>0.7763274122416802</v>
+        <v>0.7516565628084027</v>
       </c>
       <c r="AI18">
-        <v>0.7766480179727612</v>
+        <v>0.8220646056587773</v>
       </c>
       <c r="AJ18">
-        <v>0.7657719820929714</v>
+        <v>0.7367359139142131</v>
       </c>
       <c r="AK18">
-        <v>0.7661031592529298</v>
+        <v>0.8103065669433713</v>
       </c>
       <c r="AL18">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>12.5</v>
-      </c>
-      <c r="AN18">
-        <v>6.257547542463744</v>
-      </c>
-      <c r="AO18">
-        <v>2.76</v>
-      </c>
-      <c r="AP18">
-        <v>5.997763998405325</v>
-      </c>
-      <c r="AQ18">
-        <v>2.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2794,7 +2764,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Credit Corp Group Limited (ASX:CCP)</t>
+          <t>QuickFee Limited (ASX:QFE)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2802,119 +2772,101 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D19">
-        <v>0.116</v>
-      </c>
-      <c r="E19">
-        <v>0.151</v>
-      </c>
-      <c r="F19">
-        <v>0.116</v>
-      </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.1029661016949153</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01111348486038096</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007771557498110375</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>49.3</v>
+        <v>-2.64</v>
       </c>
       <c r="L19">
-        <v>0.2567708333333333</v>
+        <v>-0.5593220338983051</v>
       </c>
       <c r="M19">
-        <v>24.2</v>
+        <v>-0</v>
       </c>
       <c r="N19">
-        <v>0.02033784351626187</v>
+        <v>-0</v>
       </c>
       <c r="O19">
-        <v>0.4908722109533469</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>24.2</v>
+        <v>-0</v>
       </c>
       <c r="Q19">
-        <v>0.02033784351626187</v>
+        <v>-0</v>
       </c>
       <c r="R19">
-        <v>0.4908722109533469</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
-        <v>15.9</v>
+        <v>10.3</v>
       </c>
       <c r="V19">
-        <v>0.01336246743423817</v>
+        <v>0.1503649635036496</v>
       </c>
       <c r="W19">
-        <v>0.2326569136385087</v>
+        <v>-7.951807228915663</v>
       </c>
       <c r="X19">
-        <v>0.02747367208824189</v>
+        <v>0.01902286161028001</v>
       </c>
       <c r="Y19">
-        <v>0.2051832415502668</v>
+        <v>-7.970830090525943</v>
       </c>
       <c r="Z19">
-        <v>0.5099749851629308</v>
+        <v>0.2282177739096799</v>
       </c>
       <c r="AA19">
-        <v>0.003963299919791703</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.02717843019975983</v>
+        <v>0.01876616724094412</v>
       </c>
       <c r="AC19">
-        <v>-0.02321513027996813</v>
+        <v>-0.01876616724094412</v>
       </c>
       <c r="AD19">
-        <v>100.1</v>
+        <v>24.9</v>
       </c>
       <c r="AE19">
-        <v>8.381054534034275</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>108.4810545340343</v>
+        <v>24.9</v>
       </c>
       <c r="AG19">
-        <v>92.58105453403427</v>
+        <v>14.6</v>
       </c>
       <c r="AH19">
-        <v>0.08355101466954644</v>
+        <v>0.2665952890792291</v>
       </c>
       <c r="AI19">
-        <v>0.2501978658883467</v>
+        <v>0.6897506925207757</v>
       </c>
       <c r="AJ19">
-        <v>0.07218902314909585</v>
+        <v>0.1756919374247894</v>
       </c>
       <c r="AK19">
-        <v>0.2216549051699696</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>26.27296587926509</v>
-      </c>
-      <c r="AP19">
-        <v>24.29948937901162</v>
       </c>
     </row>
     <row r="20">
@@ -2925,7 +2877,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Prospa Group Limited (ASX:PGL)</t>
+          <t>MoneyMe Limited (ASX:MME)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2933,32 +2885,35 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="F20">
+        <v>1.259</v>
+      </c>
       <c r="G20">
-        <v>0.1105527638190955</v>
+        <v>0.1584745762711864</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01703750544936983</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01703750544936983</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-17.3</v>
+        <v>0.897</v>
       </c>
       <c r="L20">
-        <v>-0.2897822445561139</v>
+        <v>0.07601694915254237</v>
       </c>
       <c r="M20">
-        <v>1.2</v>
+        <v>-0</v>
       </c>
       <c r="N20">
-        <v>0.005514705882352942</v>
+        <v>-0</v>
       </c>
       <c r="O20">
-        <v>-0.06936416184971098</v>
+        <v>-0</v>
       </c>
       <c r="P20">
         <v>-0</v>
@@ -2967,76 +2922,67 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S20">
-        <v>1.2</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>49</v>
+        <v>24.4</v>
       </c>
       <c r="V20">
-        <v>0.2251838235294118</v>
+        <v>0.126359399274987</v>
       </c>
       <c r="W20">
-        <v>-43.68686868686869</v>
+        <v>0.3463320463320463</v>
       </c>
       <c r="X20">
-        <v>0.03254067583748563</v>
+        <v>0.01928717996963471</v>
       </c>
       <c r="Y20">
-        <v>-43.71940936270617</v>
+        <v>0.3270448663624116</v>
       </c>
       <c r="Z20">
-        <v>0.3040329363641497</v>
+        <v>0.2124594886568239</v>
       </c>
       <c r="AA20">
-        <v>0.00517996281009211</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.02953817259412328</v>
+        <v>0.01892897122162253</v>
       </c>
       <c r="AC20">
-        <v>-0.02435820978403117</v>
+        <v>-0.01892897122162253</v>
       </c>
       <c r="AD20">
-        <v>218.4</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AE20">
-        <v>3.964304623363106</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>222.3643046233631</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AG20">
-        <v>173.3643046233631</v>
+        <v>55.2</v>
       </c>
       <c r="AH20">
-        <v>0.5054144217761504</v>
+        <v>0.2918958562522919</v>
       </c>
       <c r="AI20">
-        <v>0.6788416853876674</v>
+        <v>0.711349419124218</v>
       </c>
       <c r="AJ20">
-        <v>0.4434274499570345</v>
+        <v>0.2223117196939186</v>
       </c>
       <c r="AK20">
-        <v>0.6223493166425714</v>
+        <v>0.6308571428571428</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>120.6629834254144</v>
-      </c>
-      <c r="AP20">
-        <v>95.78138376981389</v>
       </c>
     </row>
     <row r="21">
@@ -3047,7 +2993,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Auswide Bank Ltd (ASX:ABA)</t>
+          <t>Cash Converters International Limited (ASX:CCV)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3056,10 +3002,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.0373</v>
-      </c>
-      <c r="E21">
-        <v>0.0411</v>
+        <v>-0.00962</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3068,103 +3011,94 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01569648226777045</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01096939136516443</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.1</v>
+        <v>-7.24</v>
       </c>
       <c r="L21">
-        <v>0.2415169660678643</v>
+        <v>-0.03936922240348015</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="N21">
-        <v>0.05770340450086555</v>
+        <v>-0</v>
       </c>
       <c r="O21">
-        <v>0.8264462809917356</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="Q21">
-        <v>0.05770340450086555</v>
+        <v>-0</v>
       </c>
       <c r="R21">
-        <v>0.8264462809917356</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>62.9</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V21">
-        <v>0.3629544143104443</v>
+        <v>0.6727605118829981</v>
       </c>
       <c r="W21">
-        <v>0.06910336950314107</v>
+        <v>-0.03258325832583259</v>
       </c>
       <c r="X21">
-        <v>0.04115057090023305</v>
+        <v>0.02187112285846946</v>
       </c>
       <c r="Y21">
-        <v>0.02795279860290802</v>
+        <v>-0.05445438118430204</v>
       </c>
       <c r="Z21">
-        <v>0.08042146224444899</v>
+        <v>1.040158371040724</v>
       </c>
       <c r="AA21">
-        <v>0.0008821744935181561</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.02568178044619552</v>
+        <v>0.02007808732195817</v>
       </c>
       <c r="AC21">
-        <v>-0.02479960595267737</v>
+        <v>-0.02007808732195817</v>
       </c>
       <c r="AD21">
-        <v>447.5</v>
+        <v>97.2</v>
       </c>
       <c r="AE21">
-        <v>3.668031191923503</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>451.1680311919235</v>
+        <v>97.2</v>
       </c>
       <c r="AG21">
-        <v>388.2680311919235</v>
+        <v>23.60000000000001</v>
       </c>
       <c r="AH21">
-        <v>0.7224837920538191</v>
+        <v>0.4704743465634075</v>
       </c>
       <c r="AI21">
-        <v>0.7296108602546661</v>
+        <v>0.3148688046647231</v>
       </c>
       <c r="AJ21">
-        <v>0.6913998120010996</v>
+        <v>0.1774436090225565</v>
       </c>
       <c r="AK21">
-        <v>0.6989925781305143</v>
+        <v>0.100382815823054</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>294.4078947368421</v>
-      </c>
-      <c r="AP21">
-        <v>255.4394942052128</v>
       </c>
     </row>
     <row r="22">
@@ -3175,7 +3109,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MyState Limited (ASX:MYS)</t>
+          <t>Macquarie Group Limited (ASX:MQG)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3184,10 +3118,13 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.00371</v>
+        <v>0.0218</v>
       </c>
       <c r="E22">
-        <v>0.009399999999999999</v>
+        <v>0.0251</v>
+      </c>
+      <c r="F22">
+        <v>0.0464</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3196,34 +3133,34 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003427577138210217</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.002395864956140252</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.7</v>
+        <v>1619.4</v>
       </c>
       <c r="L22">
-        <v>0.2565011820330969</v>
+        <v>0.1940935350097083</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>947.7</v>
       </c>
       <c r="N22">
-        <v>0.05018820577164367</v>
+        <v>0.02563277273194454</v>
       </c>
       <c r="O22">
-        <v>0.7373271889400922</v>
+        <v>0.5852167469433124</v>
       </c>
       <c r="P22">
-        <v>16</v>
+        <v>947.7</v>
       </c>
       <c r="Q22">
-        <v>0.05018820577164367</v>
+        <v>0.02563277273194454</v>
       </c>
       <c r="R22">
-        <v>0.7373271889400922</v>
+        <v>0.5852167469433124</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3232,67 +3169,61 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>56.1</v>
+        <v>4265.9</v>
       </c>
       <c r="V22">
-        <v>0.1759723964868256</v>
+        <v>0.1153812864801121</v>
       </c>
       <c r="W22">
-        <v>0.09148397976391232</v>
+        <v>0.1223980771847082</v>
       </c>
       <c r="X22">
-        <v>0.04364702576446161</v>
+        <v>0.02750385342684451</v>
       </c>
       <c r="Y22">
-        <v>0.0478369539994507</v>
+        <v>0.09489422375786366</v>
       </c>
       <c r="Z22">
-        <v>0.0812640978241847</v>
+        <v>0.1134150386323968</v>
       </c>
       <c r="AA22">
-        <v>0.0001946978041693174</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.02562560100383504</v>
+        <v>0.02059557941542911</v>
       </c>
       <c r="AC22">
-        <v>-0.02543090319966573</v>
+        <v>-0.02059557941542911</v>
       </c>
       <c r="AD22">
-        <v>964.4</v>
+        <v>71233.7</v>
       </c>
       <c r="AE22">
-        <v>11.75013487053708</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>976.150134870537</v>
+        <v>71233.7</v>
       </c>
       <c r="AG22">
-        <v>920.050134870537</v>
+        <v>66967.8</v>
       </c>
       <c r="AH22">
-        <v>0.7538129141691837</v>
+        <v>0.6583162285975164</v>
       </c>
       <c r="AI22">
-        <v>0.8095791214448818</v>
+        <v>0.8269891172352622</v>
       </c>
       <c r="AJ22">
-        <v>0.7426645959615483</v>
+        <v>0.6442928612661151</v>
       </c>
       <c r="AK22">
-        <v>0.8002870673121303</v>
+        <v>0.8179742837146071</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>365.3030303030303</v>
-      </c>
-      <c r="AP22">
-        <v>348.5038389661125</v>
       </c>
     </row>
     <row r="23">
@@ -3303,7 +3234,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pioneer Credit Limited (ASX:PNC)</t>
+          <t>Prospa Group Limited (ASX:PGL)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3311,104 +3242,95 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D23">
-        <v>0.22</v>
-      </c>
-      <c r="E23">
-        <v>0.325</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.1572033898305085</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01006244346062505</v>
+        <v>0.002324166592645456</v>
       </c>
       <c r="J23">
-        <v>0.006541674906367476</v>
+        <v>0.002324166592645456</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>-17.2</v>
       </c>
       <c r="L23">
-        <v>0.06451612903225806</v>
+        <v>-0.3644067796610169</v>
       </c>
       <c r="M23">
-        <v>5.626</v>
+        <v>-0</v>
       </c>
       <c r="N23">
-        <v>0.07041301627033793</v>
+        <v>-0</v>
       </c>
       <c r="O23">
-        <v>1.875333333333334</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5.24</v>
+        <v>-0</v>
       </c>
       <c r="Q23">
-        <v>0.0655819774718398</v>
+        <v>-0</v>
       </c>
       <c r="R23">
-        <v>1.746666666666667</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.3860000000000001</v>
-      </c>
-      <c r="T23">
-        <v>0.06861002488446501</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>7.84</v>
+        <v>76.2</v>
       </c>
       <c r="V23">
-        <v>0.0981226533166458</v>
+        <v>0.7181903864278982</v>
       </c>
       <c r="W23">
-        <v>0.03989361702127659</v>
+        <v>-0.1634980988593156</v>
       </c>
       <c r="X23">
-        <v>0.03557011633986373</v>
+        <v>0.02890371114200499</v>
       </c>
       <c r="Y23">
-        <v>0.004323500681412858</v>
+        <v>-0.1924018100013206</v>
       </c>
       <c r="Z23">
-        <v>0.2652800118821886</v>
+        <v>0.1717634706757341</v>
       </c>
       <c r="AA23">
-        <v>0.001735375596890579</v>
+        <v>0.0003992069203813787</v>
       </c>
       <c r="AB23">
-        <v>0.02845067483074433</v>
+        <v>0.02146494134581759</v>
       </c>
       <c r="AC23">
-        <v>-0.02671529923385375</v>
+        <v>-0.02106573442543621</v>
       </c>
       <c r="AD23">
-        <v>118.8</v>
+        <v>231.6</v>
       </c>
       <c r="AE23">
-        <v>7.310481895404675</v>
+        <v>0.1964966841356722</v>
       </c>
       <c r="AF23">
-        <v>126.1104818954047</v>
+        <v>231.7964966841357</v>
       </c>
       <c r="AG23">
-        <v>118.2704818954047</v>
+        <v>155.5964966841357</v>
       </c>
       <c r="AH23">
-        <v>0.6121556570089152</v>
+        <v>0.6859985201350524</v>
       </c>
       <c r="AI23">
-        <v>0.6365664284335371</v>
+        <v>0.7223403779078874</v>
       </c>
       <c r="AJ23">
-        <v>0.5968117994375589</v>
+        <v>0.5945685122103054</v>
       </c>
       <c r="AK23">
-        <v>0.6215913299700383</v>
+        <v>0.6358754571177455</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3417,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>61.55440414507772</v>
+        <v>1554.362416107383</v>
       </c>
       <c r="AP23">
-        <v>61.28004243285216</v>
+        <v>1044.271789826414</v>
       </c>
     </row>
     <row r="24">
@@ -3431,7 +3353,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FSA Group Limited (ASX:FSA)</t>
+          <t>Australian Finance Group Limited (ASX:AFG)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3440,49 +3362,49 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.0109</v>
+        <v>0.0593</v>
       </c>
       <c r="E24">
-        <v>0.0134</v>
+        <v>0.133</v>
       </c>
       <c r="F24">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0003227861541728605</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01524300728340285</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01062093410714521</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10.1</v>
+        <v>26.3</v>
       </c>
       <c r="L24">
-        <v>0.2082474226804124</v>
+        <v>0.0558504990443831</v>
       </c>
       <c r="M24">
-        <v>5.26</v>
+        <v>16.8</v>
       </c>
       <c r="N24">
-        <v>0.04231697506033789</v>
+        <v>0.03084832904884319</v>
       </c>
       <c r="O24">
-        <v>0.5207920792079208</v>
+        <v>0.6387832699619772</v>
       </c>
       <c r="P24">
-        <v>5.26</v>
+        <v>16.8</v>
       </c>
       <c r="Q24">
-        <v>0.04231697506033789</v>
+        <v>0.03084832904884319</v>
       </c>
       <c r="R24">
-        <v>0.5207920792079208</v>
+        <v>0.6387832699619772</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3491,67 +3413,64 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>8.470000000000001</v>
+        <v>111.5</v>
       </c>
       <c r="V24">
-        <v>0.06814159292035399</v>
+        <v>0.2047374219610723</v>
       </c>
       <c r="W24">
-        <v>0.3098159509202454</v>
+        <v>0.3578231292517007</v>
       </c>
       <c r="X24">
-        <v>0.03989538849768753</v>
+        <v>0.03714267779307012</v>
       </c>
       <c r="Y24">
-        <v>0.2699205624225579</v>
+        <v>0.3206804514586306</v>
       </c>
       <c r="Z24">
-        <v>0.1541941259758898</v>
+        <v>0.3226005343563746</v>
       </c>
       <c r="AA24">
-        <v>0.001637685651698774</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.02867055504892155</v>
+        <v>0.02211732268529163</v>
       </c>
       <c r="AC24">
-        <v>-0.02703286939722278</v>
+        <v>-0.02211732268529163</v>
       </c>
       <c r="AD24">
-        <v>294</v>
+        <v>2016.8</v>
       </c>
       <c r="AE24">
-        <v>0.9435707337748086</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>294.9435707337748</v>
+        <v>2016.8</v>
       </c>
       <c r="AG24">
-        <v>286.4735707337748</v>
+        <v>1905.3</v>
       </c>
       <c r="AH24">
-        <v>0.7035136405730784</v>
+        <v>0.7873819005231514</v>
       </c>
       <c r="AI24">
-        <v>0.8861326961597996</v>
+        <v>0.9425179923357322</v>
       </c>
       <c r="AJ24">
-        <v>0.6974002008504103</v>
+        <v>0.7777052124576513</v>
       </c>
       <c r="AK24">
-        <v>0.883159408103856</v>
+        <v>0.9393580831237982</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>316.8103448275862</v>
-      </c>
-      <c r="AP24">
-        <v>308.6999684631194</v>
+        <v>-0.649</v>
+      </c>
+      <c r="AQ24">
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -3562,7 +3481,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Macquarie Group Limited (ASX:MQG)</t>
+          <t>Humm Group Limited (ASX:HUM)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3571,13 +3490,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.08740000000000001</v>
+        <v>-0.0115</v>
       </c>
       <c r="E25">
-        <v>0.168</v>
-      </c>
-      <c r="F25">
-        <v>0.008750000000000001</v>
+        <v>-0.237</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3586,103 +3502,97 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005260059142008253</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.004102070500542096</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2110.3</v>
+        <v>14.8</v>
       </c>
       <c r="L25">
-        <v>0.2347124902680458</v>
+        <v>0.09926224010731054</v>
       </c>
       <c r="M25">
-        <v>1738.7</v>
+        <v>10.5</v>
       </c>
       <c r="N25">
-        <v>0.05301512670636626</v>
+        <v>0.0244299674267101</v>
       </c>
       <c r="O25">
-        <v>0.8239112922333316</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="P25">
-        <v>1329.3</v>
+        <v>10.5</v>
       </c>
       <c r="Q25">
-        <v>0.04053201123297445</v>
+        <v>0.0244299674267101</v>
       </c>
       <c r="R25">
-        <v>0.6299104392740368</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="S25">
-        <v>409.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.2354632771610973</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>8423.1</v>
+        <v>108.7</v>
       </c>
       <c r="V25">
-        <v>0.2568308010354827</v>
+        <v>0.2529083294555607</v>
       </c>
       <c r="W25">
-        <v>0.1760490531409027</v>
+        <v>0.03425925925925926</v>
       </c>
       <c r="X25">
-        <v>0.0382088728974081</v>
+        <v>0.03752939409067982</v>
       </c>
       <c r="Y25">
-        <v>0.1378401802434946</v>
+        <v>-0.003270134831420558</v>
       </c>
       <c r="Z25">
-        <v>0.1194970771271195</v>
+        <v>0.08072987167686392</v>
       </c>
       <c r="AA25">
-        <v>0.0004901854349841606</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.028079769284383</v>
+        <v>0.02213774746853184</v>
       </c>
       <c r="AC25">
-        <v>-0.02758958384939884</v>
+        <v>-0.02213774746853184</v>
       </c>
       <c r="AD25">
-        <v>66952.89999999999</v>
+        <v>1622.3</v>
       </c>
       <c r="AE25">
-        <v>707.5340412710191</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>67660.43404127102</v>
+        <v>1622.3</v>
       </c>
       <c r="AG25">
-        <v>59237.33404127102</v>
+        <v>1513.6</v>
       </c>
       <c r="AH25">
-        <v>0.6735281082647364</v>
+        <v>0.7905560157887043</v>
       </c>
       <c r="AI25">
-        <v>0.8316206393564314</v>
+        <v>0.8002663772691397</v>
       </c>
       <c r="AJ25">
-        <v>0.6436487557875523</v>
+        <v>0.7788412061335803</v>
       </c>
       <c r="AK25">
-        <v>0.8121753193018438</v>
+        <v>0.7889497002866822</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>354.6234110169491</v>
-      </c>
-      <c r="AP25">
-        <v>313.7570658965626</v>
       </c>
     </row>
     <row r="26">
@@ -3693,7 +3603,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Australian Finance Group Limited (ASX:AFG)</t>
+          <t>Resimac Group Limited (ASX:RMC)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3702,13 +3612,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.0788</v>
+        <v>0.225</v>
       </c>
       <c r="E26">
-        <v>0.131</v>
-      </c>
-      <c r="F26">
-        <v>0.12</v>
+        <v>0.492</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3717,34 +3624,34 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.0001096648820926218</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>7.797644070266789e-05</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>23.2</v>
+        <v>38.6</v>
       </c>
       <c r="L26">
-        <v>0.05147548258264921</v>
+        <v>0.313566206336312</v>
       </c>
       <c r="M26">
-        <v>15.7</v>
+        <v>5.47</v>
       </c>
       <c r="N26">
-        <v>0.03797774552491533</v>
+        <v>0.008050036791758646</v>
       </c>
       <c r="O26">
-        <v>0.6767241379310345</v>
+        <v>0.1417098445595855</v>
       </c>
       <c r="P26">
-        <v>15.7</v>
+        <v>5.47</v>
       </c>
       <c r="Q26">
-        <v>0.03797774552491533</v>
+        <v>0.008050036791758646</v>
       </c>
       <c r="R26">
-        <v>0.6767241379310345</v>
+        <v>0.1417098445595855</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3753,70 +3660,61 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>67.90000000000001</v>
+        <v>252.7</v>
       </c>
       <c r="V26">
-        <v>0.1642477019835511</v>
+        <v>0.3718910963944076</v>
       </c>
       <c r="W26">
-        <v>0.336231884057971</v>
+        <v>0.2807272727272727</v>
       </c>
       <c r="X26">
-        <v>0.04620174242192888</v>
+        <v>0.08707486174415043</v>
       </c>
       <c r="Y26">
-        <v>0.2900301416360421</v>
+        <v>0.1936524109831223</v>
       </c>
       <c r="Z26">
-        <v>0.4371047865648313</v>
+        <v>0.01687850492918158</v>
       </c>
       <c r="AA26">
-        <v>3.408387547042487e-05</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.02885297790735327</v>
+        <v>0.02302275978148581</v>
       </c>
       <c r="AC26">
-        <v>-0.02881889403188285</v>
+        <v>-0.02302275978148581</v>
       </c>
       <c r="AD26">
-        <v>1454.1</v>
+        <v>8770</v>
       </c>
       <c r="AE26">
-        <v>5.702870188204277</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1459.802870188204</v>
+        <v>8770</v>
       </c>
       <c r="AG26">
-        <v>1391.902870188204</v>
+        <v>8517.299999999999</v>
       </c>
       <c r="AH26">
-        <v>0.7793084739623184</v>
+        <v>0.9280914334091751</v>
       </c>
       <c r="AI26">
-        <v>0.9520642650391842</v>
+        <v>0.9813246203940964</v>
       </c>
       <c r="AJ26">
-        <v>0.7710079528334751</v>
+        <v>0.926115605427975</v>
       </c>
       <c r="AK26">
-        <v>0.9498431445063567</v>
+        <v>0.9807811888256834</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>-1.41</v>
-      </c>
-      <c r="AN26">
-        <v>1221.932773109244</v>
-      </c>
-      <c r="AP26">
-        <v>1169.666277469079</v>
-      </c>
-      <c r="AQ26">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3827,7 +3725,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Resimac Group Ltd (ASX:RMC)</t>
+          <t>Pioneer Credit Limited (ASX:PNC)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3836,7 +3734,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.186</v>
+        <v>-0.0447</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3845,103 +3743,94 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.002166886131119186</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.001600980601340291</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>33.1</v>
+        <v>-27.7</v>
       </c>
       <c r="L27">
-        <v>0.3273986152324432</v>
+        <v>-1.331730769230769</v>
       </c>
       <c r="M27">
-        <v>3.08</v>
+        <v>-0</v>
       </c>
       <c r="N27">
-        <v>0.007187864644107351</v>
+        <v>-0</v>
       </c>
       <c r="O27">
-        <v>0.09305135951661631</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>3.08</v>
+        <v>-0</v>
       </c>
       <c r="Q27">
-        <v>0.007187864644107351</v>
+        <v>-0</v>
       </c>
       <c r="R27">
-        <v>0.09305135951661631</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
-        <v>157.6</v>
+        <v>7.61</v>
       </c>
       <c r="V27">
-        <v>0.3677946324387398</v>
+        <v>0.2787545787545788</v>
       </c>
       <c r="W27">
-        <v>0.2749169435215947</v>
+        <v>-0.3847222222222222</v>
       </c>
       <c r="X27">
-        <v>0.1201712557016826</v>
+        <v>0.04650326891027659</v>
       </c>
       <c r="Y27">
-        <v>0.1547456878199121</v>
+        <v>-0.4312254911324988</v>
       </c>
       <c r="Z27">
-        <v>0.01576816059057272</v>
+        <v>0.1134999454327185</v>
       </c>
       <c r="AA27">
-        <v>2.52445192243254e-05</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.0292512992508332</v>
+        <v>0.02495535294159858</v>
       </c>
       <c r="AC27">
-        <v>-0.02922605473160888</v>
+        <v>-0.02495535294159858</v>
       </c>
       <c r="AD27">
-        <v>7328.7</v>
+        <v>148.2</v>
       </c>
       <c r="AE27">
-        <v>6.454639060719251</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>7335.154639060719</v>
+        <v>148.2</v>
       </c>
       <c r="AG27">
-        <v>7177.554639060719</v>
+        <v>140.59</v>
       </c>
       <c r="AH27">
-        <v>0.9448069214923448</v>
+        <v>0.8444444444444443</v>
       </c>
       <c r="AI27">
-        <v>0.9815995778419537</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="AJ27">
-        <v>0.9436633024170707</v>
+        <v>0.8373935314789445</v>
       </c>
       <c r="AK27">
-        <v>0.981203147921031</v>
+        <v>0.7608095676172953</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>4853.443708609271</v>
-      </c>
-      <c r="AP27">
-        <v>4753.347443086569</v>
       </c>
     </row>
     <row r="28">
@@ -3952,7 +3841,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FlexiGroup Limited (ASX:FXL)</t>
+          <t>Challenger Limited (ASX:CGF)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3961,118 +3850,121 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.0646</v>
-      </c>
-      <c r="E28">
-        <v>0.0139</v>
+        <v>-0.0109</v>
       </c>
       <c r="F28">
-        <v>0.05980000000000001</v>
+        <v>0.0391</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-0.1369081115845325</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-0.1369081115845325</v>
       </c>
       <c r="I28">
-        <v>-0.0003575531486332079</v>
+        <v>-0.1411689042527534</v>
       </c>
       <c r="J28">
-        <v>-0.000242485023876838</v>
+        <v>-0.1411689042527534</v>
       </c>
       <c r="K28">
-        <v>43.3</v>
+        <v>-287.2</v>
       </c>
       <c r="L28">
-        <v>0.2085741811175337</v>
+        <v>-0.2308867272288769</v>
       </c>
       <c r="M28">
-        <v>20.27</v>
+        <v>155.13</v>
       </c>
       <c r="N28">
-        <v>0.03976849126937414</v>
+        <v>0.04651853184598776</v>
       </c>
       <c r="O28">
-        <v>0.4681293302540416</v>
+        <v>-0.5401462395543175</v>
       </c>
       <c r="P28">
-        <v>20.2</v>
+        <v>149.4</v>
       </c>
       <c r="Q28">
-        <v>0.03963115558171473</v>
+        <v>0.04480028787333573</v>
       </c>
       <c r="R28">
-        <v>0.466512702078522</v>
+        <v>-0.5201949860724234</v>
       </c>
       <c r="S28">
-        <v>0.07000000000000028</v>
+        <v>5.72999999999999</v>
       </c>
       <c r="T28">
-        <v>0.003453379378391726</v>
+        <v>0.03693676271514208</v>
       </c>
       <c r="U28">
-        <v>100.3</v>
+        <v>457</v>
       </c>
       <c r="V28">
-        <v>0.1967824210319796</v>
+        <v>0.1370397025308864</v>
       </c>
       <c r="W28">
-        <v>0.09495614035087718</v>
+        <v>-0.1137696086198701</v>
       </c>
       <c r="X28">
-        <v>0.04514819006895664</v>
+        <v>0.02643691192680417</v>
       </c>
       <c r="Y28">
-        <v>0.04980795028192055</v>
+        <v>-0.1402065205466742</v>
       </c>
       <c r="Z28">
-        <v>0.1166671538927357</v>
+        <v>0.1839136541731352</v>
       </c>
       <c r="AA28">
-        <v>-2.829003759732275e-05</v>
+        <v>-0.02596288903674133</v>
       </c>
       <c r="AB28">
-        <v>0.03087605141874378</v>
+        <v>0.0204630448801646</v>
       </c>
       <c r="AC28">
-        <v>-0.0309043414563411</v>
+        <v>-0.04642593391690593</v>
       </c>
       <c r="AD28">
-        <v>1686.5</v>
+        <v>5769.3</v>
       </c>
       <c r="AE28">
-        <v>14.72114016828127</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>1701.221140168281</v>
+        <v>5769.3</v>
       </c>
       <c r="AG28">
-        <v>1600.921140168281</v>
+        <v>5312.3</v>
       </c>
       <c r="AH28">
-        <v>0.7694626050926426</v>
+        <v>0.6337034962269746</v>
       </c>
       <c r="AI28">
-        <v>0.7974893498543141</v>
+        <v>0.720001497585144</v>
       </c>
       <c r="AJ28">
-        <v>0.7585071094477139</v>
+        <v>0.6143446935966972</v>
       </c>
       <c r="AK28">
-        <v>0.787497905617608</v>
+        <v>0.703066477851745</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>142.7</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>142.7</v>
       </c>
       <c r="AN28">
-        <v>587.6306620209059</v>
+        <v>-33.87727539635937</v>
+      </c>
+      <c r="AO28">
+        <v>-1.230553608969867</v>
       </c>
       <c r="AP28">
-        <v>557.8122439610736</v>
+        <v>-31.19377568995889</v>
+      </c>
+      <c r="AQ28">
+        <v>-1.230553608969867</v>
       </c>
     </row>
     <row r="29">
@@ -4083,7 +3975,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Xplore Wealth Limited (ASX:XPL)</t>
+          <t>ClearView Wealth Limited (ASX:CVW)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4092,34 +3984,37 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.491</v>
+        <v>-0.0258</v>
+      </c>
+      <c r="E29">
+        <v>0.00797</v>
       </c>
       <c r="G29">
-        <v>0.15775</v>
+        <v>-0.03063700707785642</v>
       </c>
       <c r="H29">
-        <v>0.004625</v>
+        <v>-0.03063700707785642</v>
       </c>
       <c r="I29">
-        <v>-0.02779716491451011</v>
+        <v>-0.03321536905965622</v>
       </c>
       <c r="J29">
-        <v>-0.02779716491451011</v>
+        <v>-0.03321536905965622</v>
       </c>
       <c r="K29">
-        <v>-0.379</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="L29">
-        <v>-0.0236875</v>
+        <v>0.04565217391304347</v>
       </c>
       <c r="M29">
-        <v>0.731</v>
+        <v>0.258</v>
       </c>
       <c r="N29">
-        <v>0.05848</v>
+        <v>0.001329896907216495</v>
       </c>
       <c r="O29">
-        <v>-1.928759894459103</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P29">
         <v>-0</v>
@@ -4128,82 +4023,82 @@
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S29">
-        <v>0.731</v>
+        <v>0.258</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0.66</v>
+        <v>128.7</v>
       </c>
       <c r="V29">
-        <v>0.0528</v>
+        <v>0.6634020618556701</v>
       </c>
       <c r="W29">
-        <v>-0.01029891304347826</v>
+        <v>0.02933723196881091</v>
       </c>
       <c r="X29">
-        <v>0.02748419911397432</v>
+        <v>0.01824484522800884</v>
       </c>
       <c r="Y29">
-        <v>-0.03778311215745258</v>
+        <v>0.01109238674080208</v>
       </c>
       <c r="Z29">
-        <v>0.8736593945574865</v>
+        <v>1.169514574587595</v>
       </c>
       <c r="AA29">
-        <v>-0.02428525426962551</v>
+        <v>-0.03884585821557382</v>
       </c>
       <c r="AB29">
-        <v>0.02718233198973574</v>
+        <v>0.01737806495240268</v>
       </c>
       <c r="AC29">
-        <v>-0.05146758625936125</v>
+        <v>-0.0562239231679765</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="AE29">
-        <v>1.163773193160809</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.163773193160809</v>
+        <v>42.7</v>
       </c>
       <c r="AG29">
-        <v>0.5037731931608093</v>
+        <v>-85.99999999999999</v>
       </c>
       <c r="AH29">
-        <v>0.08517216852979659</v>
+        <v>0.180397127165188</v>
       </c>
       <c r="AI29">
-        <v>0.03338058639588401</v>
+        <v>0.04585973579636989</v>
       </c>
       <c r="AJ29">
-        <v>0.03874053981699429</v>
+        <v>-0.7962962962962961</v>
       </c>
       <c r="AK29">
-        <v>0.01472858536149868</v>
+        <v>-0.1071784646061814</v>
       </c>
       <c r="AL29">
-        <v>0.004</v>
+        <v>0.73</v>
       </c>
       <c r="AM29">
-        <v>-0.063</v>
+        <v>0.73</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>-7.046204620462047</v>
       </c>
       <c r="AO29">
-        <v>-154.25</v>
+        <v>-9</v>
       </c>
       <c r="AP29">
-        <v>1.051718566097723</v>
+        <v>14.19141914191419</v>
       </c>
       <c r="AQ29">
-        <v>9.793650793650793</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="30">
@@ -4214,7 +4109,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zip Co Limited (ASX:Z1P)</t>
+          <t>Genworth Mortgage Insurance Australia Limited (ASX:GMA)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4223,112 +4118,118 @@
         </is>
       </c>
       <c r="D30">
-        <v>6.198</v>
+        <v>-0.107</v>
       </c>
       <c r="G30">
-        <v>-0.1330464716006885</v>
+        <v>0.4783258594917787</v>
       </c>
       <c r="H30">
-        <v>-0.1330464716006885</v>
+        <v>0.4783258594917787</v>
       </c>
       <c r="I30">
-        <v>-0.1407757729886806</v>
+        <v>-0.2002989536621823</v>
       </c>
       <c r="J30">
-        <v>-0.1407757729886806</v>
+        <v>-0.2002989536621823</v>
       </c>
       <c r="K30">
-        <v>-7.81</v>
+        <v>-41.9</v>
       </c>
       <c r="L30">
-        <v>-0.1344234079173838</v>
+        <v>-0.1565769805680119</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>22.275</v>
       </c>
       <c r="N30">
-        <v>-0</v>
+        <v>0.02928608992900342</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>-0.5316229116945107</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>22.275</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.02928608992900342</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-0.5316229116945107</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30">
-        <v>8.84</v>
+        <v>31</v>
       </c>
       <c r="V30">
-        <v>0.009104954166237512</v>
+        <v>0.0407572968708914</v>
       </c>
       <c r="W30">
-        <v>-0.3161943319838056</v>
+        <v>-0.03834187408491947</v>
       </c>
       <c r="X30">
-        <v>0.02932257142433397</v>
+        <v>0.01825761063165306</v>
       </c>
       <c r="Y30">
-        <v>-0.3455169034081396</v>
+        <v>-0.05659948471657254</v>
       </c>
       <c r="Z30">
-        <v>0.2497578058006847</v>
+        <v>0.2212484497726333</v>
       </c>
       <c r="AA30">
-        <v>-0.03515984817154817</v>
+        <v>-0.04431583298883836</v>
       </c>
       <c r="AB30">
-        <v>0.02850285672622401</v>
+        <v>0.01822165051240624</v>
       </c>
       <c r="AC30">
-        <v>-0.06366270489777218</v>
+        <v>-0.06253748350124461</v>
       </c>
       <c r="AD30">
-        <v>411.9</v>
+        <v>169.2</v>
       </c>
       <c r="AE30">
-        <v>6.345362053211719</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>418.2453620532117</v>
+        <v>169.2</v>
       </c>
       <c r="AG30">
-        <v>409.4053620532117</v>
+        <v>138.2</v>
       </c>
       <c r="AH30">
-        <v>0.3010810628450205</v>
+        <v>0.1819746181974618</v>
       </c>
       <c r="AI30">
-        <v>0.8865913598659496</v>
+        <v>0.1416610850636303</v>
       </c>
       <c r="AJ30">
-        <v>0.296604920409944</v>
+        <v>0.1537605696484201</v>
       </c>
       <c r="AK30">
-        <v>0.8844256204708856</v>
+        <v>0.1187897541688155</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="AM30">
-        <v>-0.138</v>
+        <v>7.73</v>
       </c>
       <c r="AN30">
-        <v>-67.08469055374592</v>
+        <v>-3.204545454545455</v>
+      </c>
+      <c r="AO30">
+        <v>-6.934023285899094</v>
       </c>
       <c r="AP30">
-        <v>-66.6783977285361</v>
+        <v>-2.617424242424242</v>
       </c>
       <c r="AQ30">
-        <v>61.59420289855072</v>
+        <v>-6.934023285899094</v>
       </c>
     </row>
     <row r="31">
@@ -4339,7 +4240,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ThinkSmart Limited (AIM:TSL)</t>
+          <t>LawFinance Limited (ASX:LAW)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4347,29 +4248,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D31">
-        <v>-0.08439999999999999</v>
-      </c>
-      <c r="E31">
-        <v>-0.0707</v>
-      </c>
       <c r="G31">
-        <v>0.03922330097087379</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="H31">
-        <v>0.03922330097087379</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="I31">
-        <v>-0.08977899206964357</v>
+        <v>2.768031189083821</v>
       </c>
       <c r="J31">
-        <v>-0.08977899206964357</v>
+        <v>1.38401559454191</v>
       </c>
       <c r="K31">
-        <v>11</v>
+        <v>-5.93</v>
       </c>
       <c r="L31">
-        <v>1.067961165048544</v>
+        <v>1.155945419103314</v>
       </c>
       <c r="M31">
         <v>-0</v>
@@ -4378,7 +4273,7 @@
         <v>-0</v>
       </c>
       <c r="O31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>-0</v>
@@ -4387,79 +4282,79 @@
         <v>-0</v>
       </c>
       <c r="R31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>9.02</v>
+        <v>2.71</v>
       </c>
       <c r="V31">
-        <v>0.2809968847352025</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="W31">
-        <v>0.6790123456790124</v>
+        <v>-0.5757281553398057</v>
       </c>
       <c r="X31">
-        <v>0.02758172694804233</v>
+        <v>0.03873256767801787</v>
       </c>
       <c r="Y31">
-        <v>0.6514306187309701</v>
+        <v>-0.6144607230178236</v>
       </c>
       <c r="Z31">
-        <v>0.511582168348774</v>
+        <v>-0.04478784704033525</v>
       </c>
       <c r="AA31">
-        <v>-0.04592933143515564</v>
+        <v>-0.06198707874978172</v>
       </c>
       <c r="AB31">
-        <v>0.03019054565928771</v>
+        <v>0.02219756709065203</v>
       </c>
       <c r="AC31">
-        <v>-0.07611987709444334</v>
+        <v>-0.08418464584043375</v>
       </c>
       <c r="AD31">
-        <v>3.19</v>
+        <v>108.3</v>
       </c>
       <c r="AE31">
-        <v>0.3736180915866446</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>3.563618091586644</v>
+        <v>108.3</v>
       </c>
       <c r="AG31">
-        <v>-5.456381908413356</v>
+        <v>105.59</v>
       </c>
       <c r="AH31">
-        <v>0.09992306676330555</v>
+        <v>0.7998522895125554</v>
       </c>
       <c r="AI31">
-        <v>0.1444888612187147</v>
+        <v>0.8812042310821807</v>
       </c>
       <c r="AJ31">
-        <v>-0.2047913271259633</v>
+        <v>0.7957645640214033</v>
       </c>
       <c r="AK31">
-        <v>-0.3487928352935101</v>
+        <v>0.8785256676928197</v>
       </c>
       <c r="AL31">
-        <v>0.442</v>
+        <v>16.8</v>
       </c>
       <c r="AM31">
-        <v>0.442</v>
+        <v>16.798</v>
       </c>
       <c r="AN31">
-        <v>6.064638783269961</v>
+        <v>-8.142857142857142</v>
       </c>
       <c r="AO31">
-        <v>-2.199095022624434</v>
+        <v>-0.8452380952380951</v>
       </c>
       <c r="AP31">
-        <v>-10.37334963576684</v>
+        <v>-7.939097744360902</v>
       </c>
       <c r="AQ31">
-        <v>-2.199095022624434</v>
+        <v>-0.8453387308012857</v>
       </c>
     </row>
     <row r="32">
@@ -4470,7 +4365,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OneVue Holdings Limited (ASX:OVH)</t>
+          <t>Xplore Wealth Limited (ASX:XPL)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4479,25 +4374,25 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.304</v>
+        <v>0.395</v>
       </c>
       <c r="G32">
-        <v>0.005689655172413794</v>
+        <v>0.4766037735849056</v>
       </c>
       <c r="H32">
-        <v>0.005689655172413794</v>
+        <v>-0.02842767295597484</v>
       </c>
       <c r="I32">
-        <v>-0.02807816569387751</v>
+        <v>-0.07232704402515723</v>
       </c>
       <c r="J32">
-        <v>-0.02807816569387751</v>
+        <v>-0.07232704402515723</v>
       </c>
       <c r="K32">
-        <v>0.961</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="L32">
-        <v>0.02761494252873564</v>
+        <v>-0.510062893081761</v>
       </c>
       <c r="M32">
         <v>-0</v>
@@ -4506,7 +4401,7 @@
         <v>-0</v>
       </c>
       <c r="O32">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>-0</v>
@@ -4515,79 +4410,79 @@
         <v>-0</v>
       </c>
       <c r="R32">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>7.44</v>
+        <v>1.55</v>
       </c>
       <c r="V32">
-        <v>0.106896551724138</v>
+        <v>0.03647058823529412</v>
       </c>
       <c r="W32">
-        <v>0.01402919708029197</v>
+        <v>-0.2406528189910979</v>
       </c>
       <c r="X32">
-        <v>0.02724419646307458</v>
+        <v>0.01715472251764739</v>
       </c>
       <c r="Y32">
-        <v>-0.01321499938278261</v>
+        <v>-0.2578075415087453</v>
       </c>
       <c r="Z32">
-        <v>2.486495608218428</v>
+        <v>0.9386068476977566</v>
       </c>
       <c r="AA32">
-        <v>-0.06981623568465577</v>
+        <v>-0.06788665879574968</v>
       </c>
       <c r="AB32">
-        <v>0.02708980182893323</v>
+        <v>0.01722681050444452</v>
       </c>
       <c r="AC32">
-        <v>-0.09690603751358901</v>
+        <v>-0.0851134693001942</v>
       </c>
       <c r="AD32">
-        <v>0.276</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AE32">
-        <v>3.135600830734688</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>3.411600830734688</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AG32">
-        <v>-4.028399169265312</v>
+        <v>-0.7350000000000001</v>
       </c>
       <c r="AH32">
-        <v>0.04672683233783519</v>
+        <v>0.01881565277617454</v>
       </c>
       <c r="AI32">
-        <v>0.04922120957884282</v>
+        <v>0.03132807995387276</v>
       </c>
       <c r="AJ32">
-        <v>-0.0614351200554665</v>
+        <v>-0.01759846761642524</v>
       </c>
       <c r="AK32">
-        <v>-0.0651090179529379</v>
+        <v>-0.03004291845493563</v>
       </c>
       <c r="AL32">
-        <v>0.035</v>
+        <v>0.052</v>
       </c>
       <c r="AM32">
-        <v>0.035</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="AN32">
-        <v>0.2142857142857143</v>
+        <v>-1.803097345132743</v>
       </c>
       <c r="AO32">
-        <v>-41.14285714285714</v>
+        <v>-22.11538461538461</v>
       </c>
       <c r="AP32">
-        <v>-3.127639106572447</v>
+        <v>1.626106194690266</v>
       </c>
       <c r="AQ32">
-        <v>-41.14285714285714</v>
+        <v>-383.3333333333338</v>
       </c>
     </row>
     <row r="33">
@@ -4598,7 +4493,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LawFinance Limited (ASX:LAW)</t>
+          <t>ThinkSmart Limited (AIM:TSL)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4606,23 +4501,29 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D33">
+        <v>-0.146</v>
+      </c>
+      <c r="E33">
+        <v>0.9370000000000001</v>
+      </c>
       <c r="G33">
-        <v>-0.8028933092224232</v>
+        <v>-0.01313775510204082</v>
       </c>
       <c r="H33">
-        <v>-0.8028933092224232</v>
+        <v>-0.01313775510204082</v>
       </c>
       <c r="I33">
-        <v>-1.060516560105878</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="J33">
-        <v>-1.060516560105878</v>
+        <v>-0.1426899696048632</v>
       </c>
       <c r="K33">
-        <v>-28.1</v>
+        <v>65.7</v>
       </c>
       <c r="L33">
-        <v>-5.081374321880651</v>
+        <v>8.380102040816327</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4631,7 +4532,7 @@
         <v>-0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P33">
         <v>-0</v>
@@ -4640,79 +4541,79 @@
         <v>-0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>2.76</v>
+        <v>10.9</v>
       </c>
       <c r="V33">
-        <v>0.1045454545454545</v>
+        <v>0.1019644527595884</v>
       </c>
       <c r="W33">
-        <v>-6.056034482758621</v>
+        <v>3.14354066985646</v>
       </c>
       <c r="X33">
-        <v>0.0574940591299555</v>
+        <v>0.01706590686969856</v>
       </c>
       <c r="Y33">
-        <v>-6.113528541888576</v>
+        <v>3.126474762986761</v>
       </c>
       <c r="Z33">
-        <v>0.1557777946561394</v>
+        <v>0.5061329890251776</v>
       </c>
       <c r="AA33">
-        <v>-0.1652049309296088</v>
+        <v>-0.07222010082002117</v>
       </c>
       <c r="AB33">
-        <v>0.03127707195052448</v>
+        <v>0.01706868884674231</v>
       </c>
       <c r="AC33">
-        <v>-0.1964820028801332</v>
+        <v>-0.08928878966676349</v>
       </c>
       <c r="AD33">
-        <v>147.5</v>
+        <v>0.3</v>
       </c>
       <c r="AE33">
-        <v>0.4832828869275246</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>147.9832828869275</v>
+        <v>0.3</v>
       </c>
       <c r="AG33">
-        <v>145.2232828869275</v>
+        <v>-10.6</v>
       </c>
       <c r="AH33">
-        <v>0.8486093416585229</v>
+        <v>0.002798507462686567</v>
       </c>
       <c r="AI33">
-        <v>0.9419490170261816</v>
+        <v>0.003631961259079903</v>
       </c>
       <c r="AJ33">
-        <v>0.8461747173465187</v>
+        <v>-0.1100726895119418</v>
       </c>
       <c r="AK33">
-        <v>0.9409109367805701</v>
+        <v>-0.1478382147838215</v>
       </c>
       <c r="AL33">
-        <v>17.7</v>
+        <v>0.503</v>
       </c>
       <c r="AM33">
-        <v>17.674</v>
+        <v>0.503</v>
       </c>
       <c r="AN33">
-        <v>-27.12394262596543</v>
+        <v>-2.912621359223301</v>
       </c>
       <c r="AO33">
-        <v>-0.3435028248587571</v>
+        <v>-2.226640159045726</v>
       </c>
       <c r="AP33">
-        <v>-26.70527452867369</v>
+        <v>102.9126213592233</v>
       </c>
       <c r="AQ33">
-        <v>-0.3440081475613896</v>
+        <v>-2.226640159045726</v>
       </c>
     </row>
     <row r="34">
@@ -4723,7 +4624,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N1 Holdings Limited (ASX:N1H)</t>
+          <t>Zip Co Limited (ASX:Z1P)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4732,25 +4633,25 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.196</v>
+        <v>2.288</v>
       </c>
       <c r="G34">
-        <v>-0.1766550522648083</v>
+        <v>-0.3514760147601476</v>
       </c>
       <c r="H34">
-        <v>-0.1766550522648083</v>
+        <v>-0.3514760147601476</v>
       </c>
       <c r="I34">
-        <v>-0.314906994833552</v>
+        <v>-0.3653136531365314</v>
       </c>
       <c r="J34">
-        <v>-0.314906994833552</v>
+        <v>-0.3653136531365314</v>
       </c>
       <c r="K34">
-        <v>-1.8</v>
+        <v>-13.8</v>
       </c>
       <c r="L34">
-        <v>-0.627177700348432</v>
+        <v>-0.1273062730627306</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4774,73 +4675,70 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.645</v>
+        <v>22.6</v>
       </c>
       <c r="V34">
-        <v>0.1733870967741935</v>
+        <v>0.01022439377488238</v>
       </c>
       <c r="W34">
-        <v>-1.077844311377246</v>
+        <v>-0.2579439252336449</v>
       </c>
       <c r="X34">
-        <v>0.03562490693602718</v>
+        <v>0.01889844562298629</v>
       </c>
       <c r="Y34">
-        <v>-1.113469218313273</v>
+        <v>-0.2768423708566312</v>
       </c>
       <c r="Z34">
-        <v>0.6453911885930627</v>
+        <v>0.23909830822507</v>
       </c>
       <c r="AA34">
-        <v>-0.2032381996918956</v>
+        <v>-0.0873458764364647</v>
       </c>
       <c r="AB34">
-        <v>0.03382386122692395</v>
+        <v>0.01942878813615312</v>
       </c>
       <c r="AC34">
-        <v>-0.2370620609188195</v>
+        <v>-0.1067746645726178</v>
       </c>
       <c r="AD34">
-        <v>5.51</v>
+        <v>752.8</v>
       </c>
       <c r="AE34">
-        <v>0.3989153758614709</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>5.90891537586147</v>
+        <v>752.8</v>
       </c>
       <c r="AG34">
-        <v>5.263915375861471</v>
+        <v>730.1999999999999</v>
       </c>
       <c r="AH34">
-        <v>0.6136636521569613</v>
+        <v>0.2540496760259179</v>
       </c>
       <c r="AI34">
-        <v>0.9729948484624265</v>
+        <v>0.8414934048736866</v>
       </c>
       <c r="AJ34">
-        <v>0.5859266428538361</v>
+        <v>0.2483166700673332</v>
       </c>
       <c r="AK34">
-        <v>0.9697858222459905</v>
+        <v>0.8373853211009173</v>
       </c>
       <c r="AL34">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>0.395</v>
+        <v>-0.074</v>
       </c>
       <c r="AN34">
-        <v>-17.71704180064309</v>
-      </c>
-      <c r="AO34">
-        <v>-2.582278481012658</v>
+        <v>-19.75853018372703</v>
       </c>
       <c r="AP34">
-        <v>-16.92577291273785</v>
+        <v>-19.16535433070866</v>
       </c>
       <c r="AQ34">
-        <v>-2.582278481012658</v>
+        <v>535.1351351351352</v>
       </c>
     </row>
     <row r="35">
@@ -4851,7 +4749,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMF Bentham Limited (ASX:IMF)</t>
+          <t>N1 Holdings Limited (ASX:N1H)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4860,25 +4758,25 @@
         </is>
       </c>
       <c r="D35">
-        <v>-0.383</v>
+        <v>0.0106</v>
       </c>
       <c r="G35">
-        <v>-9.036544850498339</v>
+        <v>-0.1003424657534246</v>
       </c>
       <c r="H35">
-        <v>-9.036544850498339</v>
+        <v>-0.1003424657534246</v>
       </c>
       <c r="I35">
-        <v>-9.058791808925401</v>
+        <v>-0.1698630136986301</v>
       </c>
       <c r="J35">
-        <v>-9.058791808925401</v>
+        <v>-0.1698630136986301</v>
       </c>
       <c r="K35">
-        <v>-25.3</v>
+        <v>-1.25</v>
       </c>
       <c r="L35">
-        <v>-8.40531561461794</v>
+        <v>-0.4280821917808219</v>
       </c>
       <c r="M35">
         <v>-0</v>
@@ -4902,73 +4800,73 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>158.8</v>
+        <v>1.92</v>
       </c>
       <c r="V35">
-        <v>0.2027579162410623</v>
+        <v>0.386317907444668</v>
       </c>
       <c r="W35">
-        <v>-0.1777933942375264</v>
+        <v>-7.621951219512195</v>
       </c>
       <c r="X35">
-        <v>0.02771127529586371</v>
+        <v>0.02771605476867272</v>
       </c>
       <c r="Y35">
-        <v>-0.2055046695333901</v>
+        <v>-7.649667274280868</v>
       </c>
       <c r="Z35">
-        <v>0.02559854311000731</v>
+        <v>0.6275521169138191</v>
       </c>
       <c r="AA35">
-        <v>-0.231891872645358</v>
+        <v>-0.1065978938319364</v>
       </c>
       <c r="AB35">
-        <v>0.02726325975437605</v>
+        <v>0.02131580679784962</v>
       </c>
       <c r="AC35">
-        <v>-0.259155132399734</v>
+        <v>-0.127913700629786</v>
       </c>
       <c r="AD35">
-        <v>100.9</v>
+        <v>9.77</v>
       </c>
       <c r="AE35">
-        <v>4.684816724327248</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>105.5848167243273</v>
+        <v>9.77</v>
       </c>
       <c r="AG35">
-        <v>-53.21518327567276</v>
+        <v>7.85</v>
       </c>
       <c r="AH35">
-        <v>0.1187968276882438</v>
+        <v>0.6628222523744912</v>
       </c>
       <c r="AI35">
-        <v>0.2260990356494965</v>
+        <v>1.129479768786127</v>
       </c>
       <c r="AJ35">
-        <v>-0.07289902756397881</v>
+        <v>0.6123244929797191</v>
       </c>
       <c r="AK35">
-        <v>-0.1726729559272026</v>
+        <v>1.166419019316493</v>
       </c>
       <c r="AL35">
-        <v>0.082</v>
+        <v>0.708</v>
       </c>
       <c r="AM35">
-        <v>0.082</v>
+        <v>0.708</v>
       </c>
       <c r="AN35">
-        <v>-3.891245661396066</v>
+        <v>-33.34470989761092</v>
       </c>
       <c r="AO35">
-        <v>-336.5853658536585</v>
+        <v>-0.7005649717514124</v>
       </c>
       <c r="AP35">
-        <v>2.052263142139327</v>
+        <v>-26.79180887372014</v>
       </c>
       <c r="AQ35">
-        <v>-336.5853658536585</v>
+        <v>-0.7005649717514124</v>
       </c>
     </row>
     <row r="36">
@@ -4979,7 +4877,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cashwerkz Limited (ASX:CWZ)</t>
+          <t>Omni Bridgeway Limited (ASX:OBL)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4987,113 +4885,119 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D36">
+        <v>-0.139</v>
+      </c>
       <c r="G36">
-        <v>-6.138613861386138</v>
+        <v>-1.684782608695652</v>
       </c>
       <c r="H36">
-        <v>-6.138613861386138</v>
+        <v>-1.684782608695652</v>
       </c>
       <c r="I36">
-        <v>-6.005738032379766</v>
+        <v>-2.255434782608696</v>
       </c>
       <c r="J36">
-        <v>-6.005738032379766</v>
+        <v>-1.181418219461698</v>
       </c>
       <c r="K36">
-        <v>-5.13</v>
+        <v>-7.97</v>
       </c>
       <c r="L36">
-        <v>-6.349009900990098</v>
+        <v>-0.4331521739130435</v>
       </c>
       <c r="M36">
-        <v>-0</v>
+        <v>28.3</v>
       </c>
       <c r="N36">
-        <v>-0</v>
+        <v>0.03253621522189009</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>-3.550815558343789</v>
       </c>
       <c r="P36">
-        <v>-0</v>
+        <v>28.3</v>
       </c>
       <c r="Q36">
-        <v>-0</v>
+        <v>0.03253621522189009</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-3.550815558343789</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36">
-        <v>3.61</v>
+        <v>134.2</v>
       </c>
       <c r="V36">
-        <v>0.1694835680751174</v>
+        <v>0.1542883421476201</v>
       </c>
       <c r="W36">
-        <v>-1.038461538461538</v>
+        <v>-0.05192182410423453</v>
       </c>
       <c r="X36">
-        <v>0.02708805811814875</v>
+        <v>0.01769440279476052</v>
       </c>
       <c r="Y36">
-        <v>-1.065549596579687</v>
+        <v>-0.06961622689899505</v>
       </c>
       <c r="Z36">
-        <v>0.1026790377772501</v>
+        <v>0.1924686192468619</v>
       </c>
       <c r="AA36">
-        <v>-0.6166634023069895</v>
+        <v>-0.2273859334528791</v>
       </c>
       <c r="AB36">
-        <v>0.02719971496025934</v>
+        <v>0.01724316500604594</v>
       </c>
       <c r="AC36">
-        <v>-0.6438631172672488</v>
+        <v>-0.2446290984589251</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>103.2</v>
       </c>
       <c r="AE36">
-        <v>0.4331816508142565</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.4331816508142565</v>
+        <v>103.2</v>
       </c>
       <c r="AG36">
-        <v>-3.176818349185743</v>
+        <v>-30.99999999999999</v>
       </c>
       <c r="AH36">
-        <v>0.01993181015896156</v>
+        <v>0.1060637204522097</v>
       </c>
       <c r="AI36">
-        <v>0.04112543248323928</v>
+        <v>0.1630589350608311</v>
       </c>
       <c r="AJ36">
-        <v>-0.1752903221075982</v>
+        <v>-0.03695755841678587</v>
       </c>
       <c r="AK36">
-        <v>-0.458866820114724</v>
+        <v>-0.0621616202125526</v>
       </c>
       <c r="AL36">
-        <v>0.151</v>
+        <v>0.922</v>
       </c>
       <c r="AM36">
-        <v>0.151</v>
+        <v>0.922</v>
       </c>
       <c r="AN36">
-        <v>-0</v>
+        <v>-3.329032258064516</v>
       </c>
       <c r="AO36">
-        <v>-32.98013245033113</v>
+        <v>-45.01084598698481</v>
       </c>
       <c r="AP36">
-        <v>0.6693675409156645</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AQ36">
-        <v>-32.98013245033113</v>
+        <v>-45.01084598698481</v>
       </c>
     </row>
     <row r="37">
@@ -5104,115 +5008,374 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Cashwerkz Limited (ASX:CWZ)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G37">
+        <v>-5.730593607305935</v>
+      </c>
+      <c r="H37">
+        <v>-5.730593607305935</v>
+      </c>
+      <c r="I37">
+        <v>-5.757876022367218</v>
+      </c>
+      <c r="J37">
+        <v>-5.757876022367218</v>
+      </c>
+      <c r="K37">
+        <v>-5.08</v>
+      </c>
+      <c r="L37">
+        <v>-5.799086757990867</v>
+      </c>
+      <c r="M37">
+        <v>-0</v>
+      </c>
+      <c r="N37">
+        <v>-0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>-0</v>
+      </c>
+      <c r="Q37">
+        <v>-0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>2.92</v>
+      </c>
+      <c r="V37">
+        <v>0.05959183673469388</v>
+      </c>
+      <c r="W37">
+        <v>-0.502970297029703</v>
+      </c>
+      <c r="X37">
+        <v>0.01707398809343905</v>
+      </c>
+      <c r="Y37">
+        <v>-0.520044285123142</v>
+      </c>
+      <c r="Z37">
+        <v>0.1379202419584866</v>
+      </c>
+      <c r="AA37">
+        <v>-0.7941276541718549</v>
+      </c>
+      <c r="AB37">
+        <v>0.01707820574087848</v>
+      </c>
+      <c r="AC37">
+        <v>-0.8112058599127334</v>
+      </c>
+      <c r="AD37">
+        <v>0.191</v>
+      </c>
+      <c r="AE37">
+        <v>0.0194969779684149</v>
+      </c>
+      <c r="AF37">
+        <v>0.2104969779684149</v>
+      </c>
+      <c r="AG37">
+        <v>-2.709503022031585</v>
+      </c>
+      <c r="AH37">
+        <v>0.004277481246788761</v>
+      </c>
+      <c r="AI37">
+        <v>0.02450346918324576</v>
+      </c>
+      <c r="AJ37">
+        <v>-0.05853259737784088</v>
+      </c>
+      <c r="AK37">
+        <v>-0.4778246126501466</v>
+      </c>
+      <c r="AL37">
+        <v>0.018</v>
+      </c>
+      <c r="AM37">
+        <v>0.018</v>
+      </c>
+      <c r="AN37">
+        <v>-0.0382</v>
+      </c>
+      <c r="AO37">
+        <v>-281.1111111111111</v>
+      </c>
+      <c r="AP37">
+        <v>0.541900604406317</v>
+      </c>
+      <c r="AQ37">
+        <v>-281.1111111111111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Openpay Group Ltd (ASX:OPY)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G37">
-        <v>-1.040207522697795</v>
-      </c>
-      <c r="H37">
-        <v>-1.040207522697795</v>
-      </c>
-      <c r="I37">
-        <v>-1.039873483033643</v>
-      </c>
-      <c r="J37">
-        <v>-1.039873483033643</v>
-      </c>
-      <c r="K37">
-        <v>-10.3</v>
-      </c>
-      <c r="L37">
-        <v>-1.335927367055772</v>
-      </c>
-      <c r="M37">
-        <v>-0</v>
-      </c>
-      <c r="N37">
-        <v>-0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>-0</v>
-      </c>
-      <c r="Q37">
-        <v>-0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0.02713208297359041</v>
-      </c>
-      <c r="Z37">
-        <v>3.291885504739282</v>
-      </c>
-      <c r="AA37">
-        <v>-3.423144445561199</v>
-      </c>
-      <c r="AB37">
-        <v>0.0271173771389036</v>
-      </c>
-      <c r="AC37">
-        <v>-3.450261822700103</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>2.34212277094693</v>
-      </c>
-      <c r="AF37">
-        <v>2.34212277094693</v>
-      </c>
-      <c r="AG37">
-        <v>2.34212277094693</v>
-      </c>
-      <c r="AH37">
-        <v>0.027638235795409</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37">
-        <v>0.027638235795409</v>
-      </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
-      <c r="AL37">
-        <v>1.92</v>
-      </c>
-      <c r="AM37">
-        <v>1.92</v>
-      </c>
-      <c r="AN37">
-        <v>-0</v>
-      </c>
-      <c r="AO37">
-        <v>-4.208333333333334</v>
-      </c>
-      <c r="AP37">
-        <v>-0.3127417239881065</v>
-      </c>
-      <c r="AQ37">
-        <v>-4.208333333333334</v>
+      <c r="G38">
+        <v>-2.006935483870968</v>
+      </c>
+      <c r="H38">
+        <v>-2.008064516129032</v>
+      </c>
+      <c r="I38">
+        <v>-2.016129032258065</v>
+      </c>
+      <c r="J38">
+        <v>-2.016129032258065</v>
+      </c>
+      <c r="K38">
+        <v>-24.4</v>
+      </c>
+      <c r="L38">
+        <v>-1.967741935483871</v>
+      </c>
+      <c r="M38">
+        <v>-0</v>
+      </c>
+      <c r="N38">
+        <v>-0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-0</v>
+      </c>
+      <c r="Q38">
+        <v>-0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>48.4</v>
+      </c>
+      <c r="V38">
+        <v>0.257036643653744</v>
+      </c>
+      <c r="W38">
+        <v>4.543761638733705</v>
+      </c>
+      <c r="X38">
+        <v>0.01787473112430167</v>
+      </c>
+      <c r="Y38">
+        <v>4.525886907609403</v>
+      </c>
+      <c r="Z38">
+        <v>0.9031318281136199</v>
+      </c>
+      <c r="AA38">
+        <v>-1.820830298616169</v>
+      </c>
+      <c r="AB38">
+        <v>0.0192952068727801</v>
+      </c>
+      <c r="AC38">
+        <v>-1.840125505488949</v>
+      </c>
+      <c r="AD38">
+        <v>28.6</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>28.6</v>
+      </c>
+      <c r="AG38">
+        <v>-19.8</v>
+      </c>
+      <c r="AH38">
+        <v>0.1318579990779161</v>
+      </c>
+      <c r="AI38">
+        <v>0.3543990086741016</v>
+      </c>
+      <c r="AJ38">
+        <v>-0.1175074183976261</v>
+      </c>
+      <c r="AK38">
+        <v>-0.6130030959752321</v>
+      </c>
+      <c r="AL38">
+        <v>4</v>
+      </c>
+      <c r="AM38">
+        <v>3.874</v>
+      </c>
+      <c r="AN38">
+        <v>-1.14859437751004</v>
+      </c>
+      <c r="AO38">
+        <v>-6.25</v>
+      </c>
+      <c r="AP38">
+        <v>0.7951807228915662</v>
+      </c>
+      <c r="AQ38">
+        <v>-6.453278265358802</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NSX Limited (ASX:NSX)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>-0.0499</v>
+      </c>
+      <c r="G39">
+        <v>-3.299776286353468</v>
+      </c>
+      <c r="H39">
+        <v>-3.299776286353468</v>
+      </c>
+      <c r="I39">
+        <v>-3.378076062639821</v>
+      </c>
+      <c r="J39">
+        <v>-3.378076062639821</v>
+      </c>
+      <c r="K39">
+        <v>-3.08</v>
+      </c>
+      <c r="L39">
+        <v>-3.445190156599553</v>
+      </c>
+      <c r="M39">
+        <v>-0</v>
+      </c>
+      <c r="N39">
+        <v>-0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-0</v>
+      </c>
+      <c r="Q39">
+        <v>-0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>2.15</v>
+      </c>
+      <c r="V39">
+        <v>0.04919908466819221</v>
+      </c>
+      <c r="W39">
+        <v>-1.889570552147239</v>
+      </c>
+      <c r="X39">
+        <v>0.01727167298074605</v>
+      </c>
+      <c r="Y39">
+        <v>-1.906842225127986</v>
+      </c>
+      <c r="Z39">
+        <v>3.886956521739131</v>
+      </c>
+      <c r="AA39">
+        <v>-13.1304347826087</v>
+      </c>
+      <c r="AB39">
+        <v>0.01741704461870278</v>
+      </c>
+      <c r="AC39">
+        <v>-13.1478518272274</v>
+      </c>
+      <c r="AD39">
+        <v>1.78</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>1.78</v>
+      </c>
+      <c r="AG39">
+        <v>-0.3699999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>0.03913808267370272</v>
+      </c>
+      <c r="AI39">
+        <v>0.2932454695222405</v>
+      </c>
+      <c r="AJ39">
+        <v>-0.008539118393722591</v>
+      </c>
+      <c r="AK39">
+        <v>-0.09438775510204078</v>
+      </c>
+      <c r="AL39">
+        <v>0.11</v>
+      </c>
+      <c r="AM39">
+        <v>0.11</v>
+      </c>
+      <c r="AN39">
+        <v>-0.6033898305084745</v>
+      </c>
+      <c r="AO39">
+        <v>-27.45454545454545</v>
+      </c>
+      <c r="AP39">
+        <v>0.1254237288135593</v>
+      </c>
+      <c r="AQ39">
+        <v>-27.45454545454545</v>
       </c>
     </row>
   </sheetData>
